--- a/nfe/docs/CFOP.xlsx
+++ b/nfe/docs/CFOP.xlsx
@@ -7,38 +7,40 @@
     <workbookView xWindow="240" yWindow="45" windowWidth="21075" windowHeight="10035"/>
   </bookViews>
   <sheets>
-    <sheet name="De_para_CFOP" sheetId="2" r:id="rId1"/>
-    <sheet name="Reclassificação" sheetId="4" r:id="rId2"/>
-    <sheet name="CFOP" sheetId="1" r:id="rId3"/>
-    <sheet name="DAPI" sheetId="3" r:id="rId4"/>
+    <sheet name="CFOP_de_para" sheetId="6" r:id="rId1"/>
+    <sheet name="De_para_CFOP" sheetId="2" r:id="rId2"/>
+    <sheet name="Reclassificação" sheetId="4" r:id="rId3"/>
+    <sheet name="CFOP" sheetId="1" r:id="rId4"/>
+    <sheet name="DAPI" sheetId="3" r:id="rId5"/>
+    <sheet name="Plan3" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">CFOP!$A$1:$C$627</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">De_para_CFOP!$A$1:$G$553</definedName>
-    <definedName name="AQUISIÇÕES_SERVIÇO_TRANSPORTE_2350" localSheetId="2">CFOP!$B$179</definedName>
-    <definedName name="AQUISIÇÕES_SERVIÇOS_COMUNICAÇÃO_2300" localSheetId="2">CFOP!$B$172</definedName>
-    <definedName name="COMPRA_ENERGIA_ELETRICA_2250" localSheetId="2">CFOP!$B$164</definedName>
-    <definedName name="CRÉDITOS_RESSARCIMENTOS_ICMS_2600" localSheetId="2">CFOP!$B$211</definedName>
-    <definedName name="DEVOL_2200" localSheetId="2">CFOP!$B$154</definedName>
-    <definedName name="ENT_1900" localSheetId="2">CFOP!$B$101</definedName>
-    <definedName name="ENTRADAS_AQUISIÇÕES_SERV_EXT_3000" localSheetId="2">CFOP!$B$256</definedName>
-    <definedName name="ENTRADAS_MERC_REMETIDAS_ESPECÍ_EXP_2500" localSheetId="2">CFOP!$B$197</definedName>
-    <definedName name="ENTRADAS_MERC_SUJ_REGIM_SUBST_TRIB_2400" localSheetId="2">CFOP!$B$186</definedName>
-    <definedName name="Início_Entrada_Estado" localSheetId="2">CFOP!$C$2</definedName>
-    <definedName name="Início_Entrada_Outros_Estados_2000" localSheetId="2">CFOP!$B$133</definedName>
-    <definedName name="OPERAÇÕES_BENS_ATIVO_IMOBIL_2550" localSheetId="2">CFOP!$B$203</definedName>
-    <definedName name="OUTRAS_ENTRADAS_MERC_AQUIS_SERV_2900" localSheetId="2">CFOP!$B$225</definedName>
-    <definedName name="Saídas_Exterior_7000" localSheetId="2">CFOP!#REF!</definedName>
-    <definedName name="Saídas_Outros_Estados_5000" localSheetId="2">CFOP!$B$294</definedName>
-    <definedName name="Saídas_Outros_Estados_6000" localSheetId="2">CFOP!$B$448</definedName>
-    <definedName name="TRANSF_2150" localSheetId="2">CFOP!$B$149</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">CFOP!$A$1:$C$627</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">De_para_CFOP!$A$1:$G$553</definedName>
+    <definedName name="AQUISIÇÕES_SERVIÇO_TRANSPORTE_2350" localSheetId="3">CFOP!$B$179</definedName>
+    <definedName name="AQUISIÇÕES_SERVIÇOS_COMUNICAÇÃO_2300" localSheetId="3">CFOP!$B$172</definedName>
+    <definedName name="COMPRA_ENERGIA_ELETRICA_2250" localSheetId="3">CFOP!$B$164</definedName>
+    <definedName name="CRÉDITOS_RESSARCIMENTOS_ICMS_2600" localSheetId="3">CFOP!$B$211</definedName>
+    <definedName name="DEVOL_2200" localSheetId="3">CFOP!$B$154</definedName>
+    <definedName name="ENT_1900" localSheetId="3">CFOP!$B$101</definedName>
+    <definedName name="ENTRADAS_AQUISIÇÕES_SERV_EXT_3000" localSheetId="3">CFOP!$B$256</definedName>
+    <definedName name="ENTRADAS_MERC_REMETIDAS_ESPECÍ_EXP_2500" localSheetId="3">CFOP!$B$197</definedName>
+    <definedName name="ENTRADAS_MERC_SUJ_REGIM_SUBST_TRIB_2400" localSheetId="3">CFOP!$B$186</definedName>
+    <definedName name="Início_Entrada_Estado" localSheetId="3">CFOP!$C$2</definedName>
+    <definedName name="Início_Entrada_Outros_Estados_2000" localSheetId="3">CFOP!$B$133</definedName>
+    <definedName name="OPERAÇÕES_BENS_ATIVO_IMOBIL_2550" localSheetId="3">CFOP!$B$203</definedName>
+    <definedName name="OUTRAS_ENTRADAS_MERC_AQUIS_SERV_2900" localSheetId="3">CFOP!$B$225</definedName>
+    <definedName name="Saídas_Exterior_7000" localSheetId="3">CFOP!#REF!</definedName>
+    <definedName name="Saídas_Outros_Estados_5000" localSheetId="3">CFOP!$B$294</definedName>
+    <definedName name="Saídas_Outros_Estados_6000" localSheetId="3">CFOP!$B$448</definedName>
+    <definedName name="TRANSF_2150" localSheetId="3">CFOP!$B$149</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1938" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3053" uniqueCount="538">
   <si>
     <t>CFOP</t>
   </si>
@@ -2525,6 +2527,33 @@
   </si>
   <si>
     <t>33 a 43 ou 66 a 76</t>
+  </si>
+  <si>
+    <t>Descrição</t>
+  </si>
+  <si>
+    <t>Fluxo</t>
+  </si>
+  <si>
+    <t>Entrada do Estado</t>
+  </si>
+  <si>
+    <t>Entrada de Outros Estados</t>
+  </si>
+  <si>
+    <t>Entradas do Exterior</t>
+  </si>
+  <si>
+    <t>Saídas do Estado</t>
+  </si>
+  <si>
+    <t>Saídas de Outros Estado</t>
+  </si>
+  <si>
+    <t>Saídas do Exterior</t>
+  </si>
+  <si>
+    <t>Fluxo_code</t>
   </si>
 </sst>
 </file>
@@ -3078,11 +3107,11 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3385,10 +3414,9435 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E553"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>519</v>
+      </c>
+      <c r="C1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D1" t="s">
+        <v>530</v>
+      </c>
+      <c r="E1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1101</v>
+      </c>
+      <c r="B2">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>377</v>
+      </c>
+      <c r="D2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1102</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>377</v>
+      </c>
+      <c r="D3" t="s">
+        <v>531</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1111</v>
+      </c>
+      <c r="B4">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>377</v>
+      </c>
+      <c r="D4" t="s">
+        <v>531</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1113</v>
+      </c>
+      <c r="B5">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>377</v>
+      </c>
+      <c r="D5" t="s">
+        <v>531</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1116</v>
+      </c>
+      <c r="B6">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>377</v>
+      </c>
+      <c r="D6" t="s">
+        <v>531</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1117</v>
+      </c>
+      <c r="B7">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>377</v>
+      </c>
+      <c r="D7" t="s">
+        <v>531</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1118</v>
+      </c>
+      <c r="B8">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>377</v>
+      </c>
+      <c r="D8" t="s">
+        <v>531</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1120</v>
+      </c>
+      <c r="B9">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>377</v>
+      </c>
+      <c r="D9" t="s">
+        <v>531</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1121</v>
+      </c>
+      <c r="B10">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>377</v>
+      </c>
+      <c r="D10" t="s">
+        <v>531</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1122</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D11" t="s">
+        <v>531</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1124</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>377</v>
+      </c>
+      <c r="D12" t="s">
+        <v>531</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1125</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>377</v>
+      </c>
+      <c r="D13" t="s">
+        <v>531</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1126</v>
+      </c>
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>377</v>
+      </c>
+      <c r="D14" t="s">
+        <v>531</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1128</v>
+      </c>
+      <c r="B15">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>377</v>
+      </c>
+      <c r="D15" t="s">
+        <v>531</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1401</v>
+      </c>
+      <c r="B16">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>377</v>
+      </c>
+      <c r="D16" t="s">
+        <v>531</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1403</v>
+      </c>
+      <c r="B17">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>377</v>
+      </c>
+      <c r="D17" t="s">
+        <v>531</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1501</v>
+      </c>
+      <c r="B18">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>377</v>
+      </c>
+      <c r="D18" t="s">
+        <v>531</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1651</v>
+      </c>
+      <c r="B19">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>377</v>
+      </c>
+      <c r="D19" t="s">
+        <v>531</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1652</v>
+      </c>
+      <c r="B20">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>377</v>
+      </c>
+      <c r="D20" t="s">
+        <v>531</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1151</v>
+      </c>
+      <c r="B21">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>511</v>
+      </c>
+      <c r="D21" t="s">
+        <v>531</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1152</v>
+      </c>
+      <c r="B22">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>511</v>
+      </c>
+      <c r="D22" t="s">
+        <v>531</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1153</v>
+      </c>
+      <c r="B23">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>511</v>
+      </c>
+      <c r="D23" t="s">
+        <v>531</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1154</v>
+      </c>
+      <c r="B24">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s">
+        <v>511</v>
+      </c>
+      <c r="D24" t="s">
+        <v>531</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1408</v>
+      </c>
+      <c r="B25">
+        <v>12</v>
+      </c>
+      <c r="C25" t="s">
+        <v>511</v>
+      </c>
+      <c r="D25" t="s">
+        <v>531</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1409</v>
+      </c>
+      <c r="B26">
+        <v>12</v>
+      </c>
+      <c r="C26" t="s">
+        <v>511</v>
+      </c>
+      <c r="D26" t="s">
+        <v>531</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1552</v>
+      </c>
+      <c r="B27">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>511</v>
+      </c>
+      <c r="D27" t="s">
+        <v>531</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1557</v>
+      </c>
+      <c r="B28">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s">
+        <v>511</v>
+      </c>
+      <c r="D28" t="s">
+        <v>531</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1658</v>
+      </c>
+      <c r="B29">
+        <v>12</v>
+      </c>
+      <c r="C29" t="s">
+        <v>511</v>
+      </c>
+      <c r="D29" t="s">
+        <v>531</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1659</v>
+      </c>
+      <c r="B30">
+        <v>12</v>
+      </c>
+      <c r="C30" t="s">
+        <v>511</v>
+      </c>
+      <c r="D30" t="s">
+        <v>531</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1201</v>
+      </c>
+      <c r="B31">
+        <v>13</v>
+      </c>
+      <c r="C31" t="s">
+        <v>383</v>
+      </c>
+      <c r="D31" t="s">
+        <v>531</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1202</v>
+      </c>
+      <c r="B32">
+        <v>13</v>
+      </c>
+      <c r="C32" t="s">
+        <v>383</v>
+      </c>
+      <c r="D32" t="s">
+        <v>531</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1203</v>
+      </c>
+      <c r="B33">
+        <v>13</v>
+      </c>
+      <c r="C33" t="s">
+        <v>383</v>
+      </c>
+      <c r="D33" t="s">
+        <v>531</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1204</v>
+      </c>
+      <c r="B34">
+        <v>13</v>
+      </c>
+      <c r="C34" t="s">
+        <v>383</v>
+      </c>
+      <c r="D34" t="s">
+        <v>531</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1205</v>
+      </c>
+      <c r="B35">
+        <v>13</v>
+      </c>
+      <c r="C35" t="s">
+        <v>383</v>
+      </c>
+      <c r="D35" t="s">
+        <v>531</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1206</v>
+      </c>
+      <c r="B36">
+        <v>13</v>
+      </c>
+      <c r="C36" t="s">
+        <v>383</v>
+      </c>
+      <c r="D36" t="s">
+        <v>531</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1207</v>
+      </c>
+      <c r="B37">
+        <v>13</v>
+      </c>
+      <c r="C37" t="s">
+        <v>383</v>
+      </c>
+      <c r="D37" t="s">
+        <v>531</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1208</v>
+      </c>
+      <c r="B38">
+        <v>13</v>
+      </c>
+      <c r="C38" t="s">
+        <v>383</v>
+      </c>
+      <c r="D38" t="s">
+        <v>531</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1209</v>
+      </c>
+      <c r="B39">
+        <v>13</v>
+      </c>
+      <c r="C39" t="s">
+        <v>383</v>
+      </c>
+      <c r="D39" t="s">
+        <v>531</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1410</v>
+      </c>
+      <c r="B40">
+        <v>13</v>
+      </c>
+      <c r="C40" t="s">
+        <v>383</v>
+      </c>
+      <c r="D40" t="s">
+        <v>531</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1411</v>
+      </c>
+      <c r="B41">
+        <v>13</v>
+      </c>
+      <c r="C41" t="s">
+        <v>383</v>
+      </c>
+      <c r="D41" t="s">
+        <v>531</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1503</v>
+      </c>
+      <c r="B42">
+        <v>13</v>
+      </c>
+      <c r="C42" t="s">
+        <v>383</v>
+      </c>
+      <c r="D42" t="s">
+        <v>531</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1504</v>
+      </c>
+      <c r="B43">
+        <v>13</v>
+      </c>
+      <c r="C43" t="s">
+        <v>383</v>
+      </c>
+      <c r="D43" t="s">
+        <v>531</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1505</v>
+      </c>
+      <c r="B44">
+        <v>13</v>
+      </c>
+      <c r="C44" t="s">
+        <v>383</v>
+      </c>
+      <c r="D44" t="s">
+        <v>531</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1506</v>
+      </c>
+      <c r="B45">
+        <v>13</v>
+      </c>
+      <c r="C45" t="s">
+        <v>383</v>
+      </c>
+      <c r="D45" t="s">
+        <v>531</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1553</v>
+      </c>
+      <c r="B46">
+        <v>13</v>
+      </c>
+      <c r="C46" t="s">
+        <v>383</v>
+      </c>
+      <c r="D46" t="s">
+        <v>531</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1660</v>
+      </c>
+      <c r="B47">
+        <v>13</v>
+      </c>
+      <c r="C47" t="s">
+        <v>383</v>
+      </c>
+      <c r="D47" t="s">
+        <v>531</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1661</v>
+      </c>
+      <c r="B48">
+        <v>13</v>
+      </c>
+      <c r="C48" t="s">
+        <v>383</v>
+      </c>
+      <c r="D48" t="s">
+        <v>531</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1662</v>
+      </c>
+      <c r="B49">
+        <v>13</v>
+      </c>
+      <c r="C49" t="s">
+        <v>383</v>
+      </c>
+      <c r="D49" t="s">
+        <v>531</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1918</v>
+      </c>
+      <c r="B50">
+        <v>13</v>
+      </c>
+      <c r="C50" t="s">
+        <v>383</v>
+      </c>
+      <c r="D50" t="s">
+        <v>531</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1919</v>
+      </c>
+      <c r="B51">
+        <v>13</v>
+      </c>
+      <c r="C51" t="s">
+        <v>383</v>
+      </c>
+      <c r="D51" t="s">
+        <v>531</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1251</v>
+      </c>
+      <c r="B52">
+        <v>14</v>
+      </c>
+      <c r="C52" t="s">
+        <v>386</v>
+      </c>
+      <c r="D52" t="s">
+        <v>531</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1252</v>
+      </c>
+      <c r="B53">
+        <v>14</v>
+      </c>
+      <c r="C53" t="s">
+        <v>386</v>
+      </c>
+      <c r="D53" t="s">
+        <v>531</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1253</v>
+      </c>
+      <c r="B54">
+        <v>14</v>
+      </c>
+      <c r="C54" t="s">
+        <v>386</v>
+      </c>
+      <c r="D54" t="s">
+        <v>531</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1254</v>
+      </c>
+      <c r="B55">
+        <v>14</v>
+      </c>
+      <c r="C55" t="s">
+        <v>386</v>
+      </c>
+      <c r="D55" t="s">
+        <v>531</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1255</v>
+      </c>
+      <c r="B56">
+        <v>14</v>
+      </c>
+      <c r="C56" t="s">
+        <v>386</v>
+      </c>
+      <c r="D56" t="s">
+        <v>531</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1256</v>
+      </c>
+      <c r="B57">
+        <v>14</v>
+      </c>
+      <c r="C57" t="s">
+        <v>386</v>
+      </c>
+      <c r="D57" t="s">
+        <v>531</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1257</v>
+      </c>
+      <c r="B58">
+        <v>14</v>
+      </c>
+      <c r="C58" t="s">
+        <v>386</v>
+      </c>
+      <c r="D58" t="s">
+        <v>531</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1301</v>
+      </c>
+      <c r="B59">
+        <v>15</v>
+      </c>
+      <c r="C59" t="s">
+        <v>389</v>
+      </c>
+      <c r="D59" t="s">
+        <v>531</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>1302</v>
+      </c>
+      <c r="B60">
+        <v>15</v>
+      </c>
+      <c r="C60" t="s">
+        <v>389</v>
+      </c>
+      <c r="D60" t="s">
+        <v>531</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>1303</v>
+      </c>
+      <c r="B61">
+        <v>15</v>
+      </c>
+      <c r="C61" t="s">
+        <v>389</v>
+      </c>
+      <c r="D61" t="s">
+        <v>531</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1304</v>
+      </c>
+      <c r="B62">
+        <v>15</v>
+      </c>
+      <c r="C62" t="s">
+        <v>389</v>
+      </c>
+      <c r="D62" t="s">
+        <v>531</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1305</v>
+      </c>
+      <c r="B63">
+        <v>15</v>
+      </c>
+      <c r="C63" t="s">
+        <v>389</v>
+      </c>
+      <c r="D63" t="s">
+        <v>531</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>1306</v>
+      </c>
+      <c r="B64">
+        <v>15</v>
+      </c>
+      <c r="C64" t="s">
+        <v>389</v>
+      </c>
+      <c r="D64" t="s">
+        <v>531</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1351</v>
+      </c>
+      <c r="B65">
+        <v>16</v>
+      </c>
+      <c r="C65" t="s">
+        <v>392</v>
+      </c>
+      <c r="D65" t="s">
+        <v>531</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>1352</v>
+      </c>
+      <c r="B66">
+        <v>16</v>
+      </c>
+      <c r="C66" t="s">
+        <v>392</v>
+      </c>
+      <c r="D66" t="s">
+        <v>531</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1353</v>
+      </c>
+      <c r="B67">
+        <v>16</v>
+      </c>
+      <c r="C67" t="s">
+        <v>392</v>
+      </c>
+      <c r="D67" t="s">
+        <v>531</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>1354</v>
+      </c>
+      <c r="B68">
+        <v>16</v>
+      </c>
+      <c r="C68" t="s">
+        <v>392</v>
+      </c>
+      <c r="D68" t="s">
+        <v>531</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>1355</v>
+      </c>
+      <c r="B69">
+        <v>16</v>
+      </c>
+      <c r="C69" t="s">
+        <v>392</v>
+      </c>
+      <c r="D69" t="s">
+        <v>531</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>1356</v>
+      </c>
+      <c r="B70">
+        <v>16</v>
+      </c>
+      <c r="C70" t="s">
+        <v>392</v>
+      </c>
+      <c r="D70" t="s">
+        <v>531</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1360</v>
+      </c>
+      <c r="B71">
+        <v>16</v>
+      </c>
+      <c r="C71" t="s">
+        <v>392</v>
+      </c>
+      <c r="D71" t="s">
+        <v>531</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>1931</v>
+      </c>
+      <c r="B72">
+        <v>16</v>
+      </c>
+      <c r="C72" t="s">
+        <v>392</v>
+      </c>
+      <c r="D72" t="s">
+        <v>531</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1932</v>
+      </c>
+      <c r="B73">
+        <v>16</v>
+      </c>
+      <c r="C73" t="s">
+        <v>392</v>
+      </c>
+      <c r="D73" t="s">
+        <v>531</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>1406</v>
+      </c>
+      <c r="B74">
+        <v>17</v>
+      </c>
+      <c r="C74" t="s">
+        <v>395</v>
+      </c>
+      <c r="D74" t="s">
+        <v>531</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>1551</v>
+      </c>
+      <c r="B75">
+        <v>17</v>
+      </c>
+      <c r="C75" t="s">
+        <v>395</v>
+      </c>
+      <c r="D75" t="s">
+        <v>531</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>1555</v>
+      </c>
+      <c r="B76">
+        <v>17</v>
+      </c>
+      <c r="C76" t="s">
+        <v>395</v>
+      </c>
+      <c r="D76" t="s">
+        <v>531</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>1407</v>
+      </c>
+      <c r="B77">
+        <v>18</v>
+      </c>
+      <c r="C77" t="s">
+        <v>399</v>
+      </c>
+      <c r="D77" t="s">
+        <v>531</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>1556</v>
+      </c>
+      <c r="B78">
+        <v>18</v>
+      </c>
+      <c r="C78" t="s">
+        <v>399</v>
+      </c>
+      <c r="D78" t="s">
+        <v>531</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>1653</v>
+      </c>
+      <c r="B79">
+        <v>18</v>
+      </c>
+      <c r="C79" t="s">
+        <v>399</v>
+      </c>
+      <c r="D79" t="s">
+        <v>531</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>1601</v>
+      </c>
+      <c r="B80">
+        <v>19</v>
+      </c>
+      <c r="C80" t="s">
+        <v>512</v>
+      </c>
+      <c r="D80" t="s">
+        <v>531</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>1602</v>
+      </c>
+      <c r="B81">
+        <v>19</v>
+      </c>
+      <c r="C81" t="s">
+        <v>512</v>
+      </c>
+      <c r="D81" t="s">
+        <v>531</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>1603</v>
+      </c>
+      <c r="B82">
+        <v>19</v>
+      </c>
+      <c r="C82" t="s">
+        <v>512</v>
+      </c>
+      <c r="D82" t="s">
+        <v>531</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>1604</v>
+      </c>
+      <c r="B83">
+        <v>19</v>
+      </c>
+      <c r="C83" t="s">
+        <v>512</v>
+      </c>
+      <c r="D83" t="s">
+        <v>531</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>1605</v>
+      </c>
+      <c r="B84">
+        <v>19</v>
+      </c>
+      <c r="C84" t="s">
+        <v>512</v>
+      </c>
+      <c r="D84" t="s">
+        <v>531</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>1922</v>
+      </c>
+      <c r="B85">
+        <v>19</v>
+      </c>
+      <c r="C85" t="s">
+        <v>512</v>
+      </c>
+      <c r="D85" t="s">
+        <v>531</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>1926</v>
+      </c>
+      <c r="B86">
+        <v>19</v>
+      </c>
+      <c r="C86" t="s">
+        <v>512</v>
+      </c>
+      <c r="D86" t="s">
+        <v>531</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>1414</v>
+      </c>
+      <c r="B87">
+        <v>20</v>
+      </c>
+      <c r="C87" t="s">
+        <v>513</v>
+      </c>
+      <c r="D87" t="s">
+        <v>531</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>1415</v>
+      </c>
+      <c r="B88">
+        <v>20</v>
+      </c>
+      <c r="C88" t="s">
+        <v>513</v>
+      </c>
+      <c r="D88" t="s">
+        <v>531</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>1451</v>
+      </c>
+      <c r="B89">
+        <v>20</v>
+      </c>
+      <c r="C89" t="s">
+        <v>513</v>
+      </c>
+      <c r="D89" t="s">
+        <v>531</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>1452</v>
+      </c>
+      <c r="B90">
+        <v>20</v>
+      </c>
+      <c r="C90" t="s">
+        <v>513</v>
+      </c>
+      <c r="D90" t="s">
+        <v>531</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>1554</v>
+      </c>
+      <c r="B91">
+        <v>20</v>
+      </c>
+      <c r="C91" t="s">
+        <v>513</v>
+      </c>
+      <c r="D91" t="s">
+        <v>531</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>1664</v>
+      </c>
+      <c r="B92">
+        <v>20</v>
+      </c>
+      <c r="C92" t="s">
+        <v>513</v>
+      </c>
+      <c r="D92" t="s">
+        <v>531</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>1902</v>
+      </c>
+      <c r="B93">
+        <v>20</v>
+      </c>
+      <c r="C93" t="s">
+        <v>513</v>
+      </c>
+      <c r="D93" t="s">
+        <v>531</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>1904</v>
+      </c>
+      <c r="B94">
+        <v>20</v>
+      </c>
+      <c r="C94" t="s">
+        <v>513</v>
+      </c>
+      <c r="D94" t="s">
+        <v>531</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>1906</v>
+      </c>
+      <c r="B95">
+        <v>20</v>
+      </c>
+      <c r="C95" t="s">
+        <v>513</v>
+      </c>
+      <c r="D95" t="s">
+        <v>531</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>1907</v>
+      </c>
+      <c r="B96">
+        <v>20</v>
+      </c>
+      <c r="C96" t="s">
+        <v>513</v>
+      </c>
+      <c r="D96" t="s">
+        <v>531</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>1909</v>
+      </c>
+      <c r="B97">
+        <v>20</v>
+      </c>
+      <c r="C97" t="s">
+        <v>513</v>
+      </c>
+      <c r="D97" t="s">
+        <v>531</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>1913</v>
+      </c>
+      <c r="B98">
+        <v>20</v>
+      </c>
+      <c r="C98" t="s">
+        <v>513</v>
+      </c>
+      <c r="D98" t="s">
+        <v>531</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>1914</v>
+      </c>
+      <c r="B99">
+        <v>20</v>
+      </c>
+      <c r="C99" t="s">
+        <v>513</v>
+      </c>
+      <c r="D99" t="s">
+        <v>531</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>1916</v>
+      </c>
+      <c r="B100">
+        <v>20</v>
+      </c>
+      <c r="C100" t="s">
+        <v>513</v>
+      </c>
+      <c r="D100" t="s">
+        <v>531</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>1921</v>
+      </c>
+      <c r="B101">
+        <v>20</v>
+      </c>
+      <c r="C101" t="s">
+        <v>513</v>
+      </c>
+      <c r="D101" t="s">
+        <v>531</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>1925</v>
+      </c>
+      <c r="B102">
+        <v>20</v>
+      </c>
+      <c r="C102" t="s">
+        <v>513</v>
+      </c>
+      <c r="D102" t="s">
+        <v>531</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>1663</v>
+      </c>
+      <c r="B103">
+        <v>21</v>
+      </c>
+      <c r="C103" t="s">
+        <v>514</v>
+      </c>
+      <c r="D103" t="s">
+        <v>531</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>1901</v>
+      </c>
+      <c r="B104">
+        <v>21</v>
+      </c>
+      <c r="C104" t="s">
+        <v>514</v>
+      </c>
+      <c r="D104" t="s">
+        <v>531</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>1903</v>
+      </c>
+      <c r="B105">
+        <v>21</v>
+      </c>
+      <c r="C105" t="s">
+        <v>514</v>
+      </c>
+      <c r="D105" t="s">
+        <v>531</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>1905</v>
+      </c>
+      <c r="B106">
+        <v>21</v>
+      </c>
+      <c r="C106" t="s">
+        <v>514</v>
+      </c>
+      <c r="D106" t="s">
+        <v>531</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>1908</v>
+      </c>
+      <c r="B107">
+        <v>21</v>
+      </c>
+      <c r="C107" t="s">
+        <v>514</v>
+      </c>
+      <c r="D107" t="s">
+        <v>531</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>1910</v>
+      </c>
+      <c r="B108">
+        <v>21</v>
+      </c>
+      <c r="C108" t="s">
+        <v>514</v>
+      </c>
+      <c r="D108" t="s">
+        <v>531</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>1911</v>
+      </c>
+      <c r="B109">
+        <v>21</v>
+      </c>
+      <c r="C109" t="s">
+        <v>514</v>
+      </c>
+      <c r="D109" t="s">
+        <v>531</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>1912</v>
+      </c>
+      <c r="B110">
+        <v>21</v>
+      </c>
+      <c r="C110" t="s">
+        <v>514</v>
+      </c>
+      <c r="D110" t="s">
+        <v>531</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>1915</v>
+      </c>
+      <c r="B111">
+        <v>21</v>
+      </c>
+      <c r="C111" t="s">
+        <v>514</v>
+      </c>
+      <c r="D111" t="s">
+        <v>531</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>1917</v>
+      </c>
+      <c r="B112">
+        <v>21</v>
+      </c>
+      <c r="C112" t="s">
+        <v>514</v>
+      </c>
+      <c r="D112" t="s">
+        <v>531</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>1920</v>
+      </c>
+      <c r="B113">
+        <v>21</v>
+      </c>
+      <c r="C113" t="s">
+        <v>514</v>
+      </c>
+      <c r="D113" t="s">
+        <v>531</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>1923</v>
+      </c>
+      <c r="B114">
+        <v>21</v>
+      </c>
+      <c r="C114" t="s">
+        <v>514</v>
+      </c>
+      <c r="D114" t="s">
+        <v>531</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>1924</v>
+      </c>
+      <c r="B115">
+        <v>21</v>
+      </c>
+      <c r="C115" t="s">
+        <v>514</v>
+      </c>
+      <c r="D115" t="s">
+        <v>531</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>1933</v>
+      </c>
+      <c r="B116">
+        <v>21</v>
+      </c>
+      <c r="C116" t="s">
+        <v>514</v>
+      </c>
+      <c r="D116" t="s">
+        <v>531</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>1934</v>
+      </c>
+      <c r="B117">
+        <v>21</v>
+      </c>
+      <c r="C117" t="s">
+        <v>514</v>
+      </c>
+      <c r="D117" t="s">
+        <v>531</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>1949</v>
+      </c>
+      <c r="B118">
+        <v>21</v>
+      </c>
+      <c r="C118" t="s">
+        <v>514</v>
+      </c>
+      <c r="D118" t="s">
+        <v>531</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>2101</v>
+      </c>
+      <c r="B119">
+        <v>22</v>
+      </c>
+      <c r="C119" t="s">
+        <v>377</v>
+      </c>
+      <c r="D119" t="s">
+        <v>532</v>
+      </c>
+      <c r="E119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>2102</v>
+      </c>
+      <c r="B120">
+        <v>22</v>
+      </c>
+      <c r="C120" t="s">
+        <v>377</v>
+      </c>
+      <c r="D120" t="s">
+        <v>532</v>
+      </c>
+      <c r="E120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>2111</v>
+      </c>
+      <c r="B121">
+        <v>22</v>
+      </c>
+      <c r="C121" t="s">
+        <v>377</v>
+      </c>
+      <c r="D121" t="s">
+        <v>532</v>
+      </c>
+      <c r="E121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>2113</v>
+      </c>
+      <c r="B122">
+        <v>22</v>
+      </c>
+      <c r="C122" t="s">
+        <v>377</v>
+      </c>
+      <c r="D122" t="s">
+        <v>532</v>
+      </c>
+      <c r="E122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>2116</v>
+      </c>
+      <c r="B123">
+        <v>22</v>
+      </c>
+      <c r="C123" t="s">
+        <v>377</v>
+      </c>
+      <c r="D123" t="s">
+        <v>532</v>
+      </c>
+      <c r="E123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>2117</v>
+      </c>
+      <c r="B124">
+        <v>22</v>
+      </c>
+      <c r="C124" t="s">
+        <v>377</v>
+      </c>
+      <c r="D124" t="s">
+        <v>532</v>
+      </c>
+      <c r="E124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>2118</v>
+      </c>
+      <c r="B125">
+        <v>22</v>
+      </c>
+      <c r="C125" t="s">
+        <v>377</v>
+      </c>
+      <c r="D125" t="s">
+        <v>532</v>
+      </c>
+      <c r="E125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>2120</v>
+      </c>
+      <c r="B126">
+        <v>22</v>
+      </c>
+      <c r="C126" t="s">
+        <v>377</v>
+      </c>
+      <c r="D126" t="s">
+        <v>532</v>
+      </c>
+      <c r="E126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>2121</v>
+      </c>
+      <c r="B127">
+        <v>22</v>
+      </c>
+      <c r="C127" t="s">
+        <v>377</v>
+      </c>
+      <c r="D127" t="s">
+        <v>532</v>
+      </c>
+      <c r="E127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>2122</v>
+      </c>
+      <c r="B128">
+        <v>22</v>
+      </c>
+      <c r="C128" t="s">
+        <v>377</v>
+      </c>
+      <c r="D128" t="s">
+        <v>532</v>
+      </c>
+      <c r="E128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>2124</v>
+      </c>
+      <c r="B129">
+        <v>22</v>
+      </c>
+      <c r="C129" t="s">
+        <v>377</v>
+      </c>
+      <c r="D129" t="s">
+        <v>532</v>
+      </c>
+      <c r="E129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>2125</v>
+      </c>
+      <c r="B130">
+        <v>22</v>
+      </c>
+      <c r="C130" t="s">
+        <v>377</v>
+      </c>
+      <c r="D130" t="s">
+        <v>532</v>
+      </c>
+      <c r="E130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>2126</v>
+      </c>
+      <c r="B131">
+        <v>22</v>
+      </c>
+      <c r="C131" t="s">
+        <v>377</v>
+      </c>
+      <c r="D131" t="s">
+        <v>532</v>
+      </c>
+      <c r="E131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>2128</v>
+      </c>
+      <c r="B132">
+        <v>22</v>
+      </c>
+      <c r="C132" t="s">
+        <v>377</v>
+      </c>
+      <c r="D132" t="s">
+        <v>532</v>
+      </c>
+      <c r="E132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>2401</v>
+      </c>
+      <c r="B133">
+        <v>22</v>
+      </c>
+      <c r="C133" t="s">
+        <v>377</v>
+      </c>
+      <c r="D133" t="s">
+        <v>532</v>
+      </c>
+      <c r="E133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>2403</v>
+      </c>
+      <c r="B134">
+        <v>22</v>
+      </c>
+      <c r="C134" t="s">
+        <v>377</v>
+      </c>
+      <c r="D134" t="s">
+        <v>532</v>
+      </c>
+      <c r="E134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>2501</v>
+      </c>
+      <c r="B135">
+        <v>22</v>
+      </c>
+      <c r="C135" t="s">
+        <v>377</v>
+      </c>
+      <c r="D135" t="s">
+        <v>532</v>
+      </c>
+      <c r="E135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>2651</v>
+      </c>
+      <c r="B136">
+        <v>22</v>
+      </c>
+      <c r="C136" t="s">
+        <v>377</v>
+      </c>
+      <c r="D136" t="s">
+        <v>532</v>
+      </c>
+      <c r="E136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>2652</v>
+      </c>
+      <c r="B137">
+        <v>22</v>
+      </c>
+      <c r="C137" t="s">
+        <v>377</v>
+      </c>
+      <c r="D137" t="s">
+        <v>532</v>
+      </c>
+      <c r="E137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>2151</v>
+      </c>
+      <c r="B138">
+        <v>23</v>
+      </c>
+      <c r="C138" t="s">
+        <v>511</v>
+      </c>
+      <c r="D138" t="s">
+        <v>532</v>
+      </c>
+      <c r="E138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>2152</v>
+      </c>
+      <c r="B139">
+        <v>23</v>
+      </c>
+      <c r="C139" t="s">
+        <v>511</v>
+      </c>
+      <c r="D139" t="s">
+        <v>532</v>
+      </c>
+      <c r="E139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>2153</v>
+      </c>
+      <c r="B140">
+        <v>23</v>
+      </c>
+      <c r="C140" t="s">
+        <v>511</v>
+      </c>
+      <c r="D140" t="s">
+        <v>532</v>
+      </c>
+      <c r="E140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>2154</v>
+      </c>
+      <c r="B141">
+        <v>23</v>
+      </c>
+      <c r="C141" t="s">
+        <v>511</v>
+      </c>
+      <c r="D141" t="s">
+        <v>532</v>
+      </c>
+      <c r="E141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>2408</v>
+      </c>
+      <c r="B142">
+        <v>23</v>
+      </c>
+      <c r="C142" t="s">
+        <v>511</v>
+      </c>
+      <c r="D142" t="s">
+        <v>532</v>
+      </c>
+      <c r="E142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>2409</v>
+      </c>
+      <c r="B143">
+        <v>23</v>
+      </c>
+      <c r="C143" t="s">
+        <v>511</v>
+      </c>
+      <c r="D143" t="s">
+        <v>532</v>
+      </c>
+      <c r="E143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>2552</v>
+      </c>
+      <c r="B144">
+        <v>23</v>
+      </c>
+      <c r="C144" t="s">
+        <v>511</v>
+      </c>
+      <c r="D144" t="s">
+        <v>532</v>
+      </c>
+      <c r="E144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>2658</v>
+      </c>
+      <c r="B145">
+        <v>23</v>
+      </c>
+      <c r="C145" t="s">
+        <v>511</v>
+      </c>
+      <c r="D145" t="s">
+        <v>532</v>
+      </c>
+      <c r="E145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>2659</v>
+      </c>
+      <c r="B146">
+        <v>23</v>
+      </c>
+      <c r="C146" t="s">
+        <v>511</v>
+      </c>
+      <c r="D146" t="s">
+        <v>532</v>
+      </c>
+      <c r="E146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>2201</v>
+      </c>
+      <c r="B147">
+        <v>24</v>
+      </c>
+      <c r="C147" t="s">
+        <v>383</v>
+      </c>
+      <c r="D147" t="s">
+        <v>532</v>
+      </c>
+      <c r="E147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>2202</v>
+      </c>
+      <c r="B148">
+        <v>24</v>
+      </c>
+      <c r="C148" t="s">
+        <v>383</v>
+      </c>
+      <c r="D148" t="s">
+        <v>532</v>
+      </c>
+      <c r="E148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>2203</v>
+      </c>
+      <c r="B149">
+        <v>24</v>
+      </c>
+      <c r="C149" t="s">
+        <v>383</v>
+      </c>
+      <c r="D149" t="s">
+        <v>532</v>
+      </c>
+      <c r="E149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>2204</v>
+      </c>
+      <c r="B150">
+        <v>24</v>
+      </c>
+      <c r="C150" t="s">
+        <v>383</v>
+      </c>
+      <c r="D150" t="s">
+        <v>532</v>
+      </c>
+      <c r="E150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>2205</v>
+      </c>
+      <c r="B151">
+        <v>24</v>
+      </c>
+      <c r="C151" t="s">
+        <v>383</v>
+      </c>
+      <c r="D151" t="s">
+        <v>532</v>
+      </c>
+      <c r="E151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>2206</v>
+      </c>
+      <c r="B152">
+        <v>24</v>
+      </c>
+      <c r="C152" t="s">
+        <v>383</v>
+      </c>
+      <c r="D152" t="s">
+        <v>532</v>
+      </c>
+      <c r="E152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>2207</v>
+      </c>
+      <c r="B153">
+        <v>24</v>
+      </c>
+      <c r="C153" t="s">
+        <v>383</v>
+      </c>
+      <c r="D153" t="s">
+        <v>532</v>
+      </c>
+      <c r="E153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>2208</v>
+      </c>
+      <c r="B154">
+        <v>24</v>
+      </c>
+      <c r="C154" t="s">
+        <v>383</v>
+      </c>
+      <c r="D154" t="s">
+        <v>532</v>
+      </c>
+      <c r="E154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>2209</v>
+      </c>
+      <c r="B155">
+        <v>24</v>
+      </c>
+      <c r="C155" t="s">
+        <v>383</v>
+      </c>
+      <c r="D155" t="s">
+        <v>532</v>
+      </c>
+      <c r="E155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>2410</v>
+      </c>
+      <c r="B156">
+        <v>24</v>
+      </c>
+      <c r="C156" t="s">
+        <v>383</v>
+      </c>
+      <c r="D156" t="s">
+        <v>532</v>
+      </c>
+      <c r="E156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>2411</v>
+      </c>
+      <c r="B157">
+        <v>24</v>
+      </c>
+      <c r="C157" t="s">
+        <v>383</v>
+      </c>
+      <c r="D157" t="s">
+        <v>532</v>
+      </c>
+      <c r="E157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>2503</v>
+      </c>
+      <c r="B158">
+        <v>24</v>
+      </c>
+      <c r="C158" t="s">
+        <v>383</v>
+      </c>
+      <c r="D158" t="s">
+        <v>532</v>
+      </c>
+      <c r="E158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>2504</v>
+      </c>
+      <c r="B159">
+        <v>24</v>
+      </c>
+      <c r="C159" t="s">
+        <v>383</v>
+      </c>
+      <c r="D159" t="s">
+        <v>532</v>
+      </c>
+      <c r="E159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>2505</v>
+      </c>
+      <c r="B160">
+        <v>24</v>
+      </c>
+      <c r="C160" t="s">
+        <v>383</v>
+      </c>
+      <c r="D160" t="s">
+        <v>532</v>
+      </c>
+      <c r="E160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>2506</v>
+      </c>
+      <c r="B161">
+        <v>24</v>
+      </c>
+      <c r="C161" t="s">
+        <v>383</v>
+      </c>
+      <c r="D161" t="s">
+        <v>532</v>
+      </c>
+      <c r="E161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>2553</v>
+      </c>
+      <c r="B162">
+        <v>24</v>
+      </c>
+      <c r="C162" t="s">
+        <v>383</v>
+      </c>
+      <c r="D162" t="s">
+        <v>532</v>
+      </c>
+      <c r="E162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>2660</v>
+      </c>
+      <c r="B163">
+        <v>24</v>
+      </c>
+      <c r="C163" t="s">
+        <v>383</v>
+      </c>
+      <c r="D163" t="s">
+        <v>532</v>
+      </c>
+      <c r="E163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>2661</v>
+      </c>
+      <c r="B164">
+        <v>24</v>
+      </c>
+      <c r="C164" t="s">
+        <v>383</v>
+      </c>
+      <c r="D164" t="s">
+        <v>532</v>
+      </c>
+      <c r="E164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>2662</v>
+      </c>
+      <c r="B165">
+        <v>24</v>
+      </c>
+      <c r="C165" t="s">
+        <v>383</v>
+      </c>
+      <c r="D165" t="s">
+        <v>532</v>
+      </c>
+      <c r="E165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>2918</v>
+      </c>
+      <c r="B166">
+        <v>24</v>
+      </c>
+      <c r="C166" t="s">
+        <v>383</v>
+      </c>
+      <c r="D166" t="s">
+        <v>532</v>
+      </c>
+      <c r="E166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>2919</v>
+      </c>
+      <c r="B167">
+        <v>24</v>
+      </c>
+      <c r="C167" t="s">
+        <v>383</v>
+      </c>
+      <c r="D167" t="s">
+        <v>532</v>
+      </c>
+      <c r="E167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>2251</v>
+      </c>
+      <c r="B168">
+        <v>25</v>
+      </c>
+      <c r="C168" t="s">
+        <v>386</v>
+      </c>
+      <c r="D168" t="s">
+        <v>532</v>
+      </c>
+      <c r="E168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>2252</v>
+      </c>
+      <c r="B169">
+        <v>25</v>
+      </c>
+      <c r="C169" t="s">
+        <v>386</v>
+      </c>
+      <c r="D169" t="s">
+        <v>532</v>
+      </c>
+      <c r="E169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>2253</v>
+      </c>
+      <c r="B170">
+        <v>25</v>
+      </c>
+      <c r="C170" t="s">
+        <v>386</v>
+      </c>
+      <c r="D170" t="s">
+        <v>532</v>
+      </c>
+      <c r="E170">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>2254</v>
+      </c>
+      <c r="B171">
+        <v>25</v>
+      </c>
+      <c r="C171" t="s">
+        <v>386</v>
+      </c>
+      <c r="D171" t="s">
+        <v>532</v>
+      </c>
+      <c r="E171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>2255</v>
+      </c>
+      <c r="B172">
+        <v>25</v>
+      </c>
+      <c r="C172" t="s">
+        <v>386</v>
+      </c>
+      <c r="D172" t="s">
+        <v>532</v>
+      </c>
+      <c r="E172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>2256</v>
+      </c>
+      <c r="B173">
+        <v>25</v>
+      </c>
+      <c r="C173" t="s">
+        <v>386</v>
+      </c>
+      <c r="D173" t="s">
+        <v>532</v>
+      </c>
+      <c r="E173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>2257</v>
+      </c>
+      <c r="B174">
+        <v>25</v>
+      </c>
+      <c r="C174" t="s">
+        <v>386</v>
+      </c>
+      <c r="D174" t="s">
+        <v>532</v>
+      </c>
+      <c r="E174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>2301</v>
+      </c>
+      <c r="B175">
+        <v>26</v>
+      </c>
+      <c r="C175" t="s">
+        <v>389</v>
+      </c>
+      <c r="D175" t="s">
+        <v>532</v>
+      </c>
+      <c r="E175">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>2302</v>
+      </c>
+      <c r="B176">
+        <v>26</v>
+      </c>
+      <c r="C176" t="s">
+        <v>389</v>
+      </c>
+      <c r="D176" t="s">
+        <v>532</v>
+      </c>
+      <c r="E176">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>2303</v>
+      </c>
+      <c r="B177">
+        <v>26</v>
+      </c>
+      <c r="C177" t="s">
+        <v>389</v>
+      </c>
+      <c r="D177" t="s">
+        <v>532</v>
+      </c>
+      <c r="E177">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>2304</v>
+      </c>
+      <c r="B178">
+        <v>26</v>
+      </c>
+      <c r="C178" t="s">
+        <v>389</v>
+      </c>
+      <c r="D178" t="s">
+        <v>532</v>
+      </c>
+      <c r="E178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>2305</v>
+      </c>
+      <c r="B179">
+        <v>26</v>
+      </c>
+      <c r="C179" t="s">
+        <v>389</v>
+      </c>
+      <c r="D179" t="s">
+        <v>532</v>
+      </c>
+      <c r="E179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>2306</v>
+      </c>
+      <c r="B180">
+        <v>26</v>
+      </c>
+      <c r="C180" t="s">
+        <v>389</v>
+      </c>
+      <c r="D180" t="s">
+        <v>532</v>
+      </c>
+      <c r="E180">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>2351</v>
+      </c>
+      <c r="B181">
+        <v>27</v>
+      </c>
+      <c r="C181" t="s">
+        <v>392</v>
+      </c>
+      <c r="D181" t="s">
+        <v>532</v>
+      </c>
+      <c r="E181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>2352</v>
+      </c>
+      <c r="B182">
+        <v>27</v>
+      </c>
+      <c r="C182" t="s">
+        <v>392</v>
+      </c>
+      <c r="D182" t="s">
+        <v>532</v>
+      </c>
+      <c r="E182">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>2353</v>
+      </c>
+      <c r="B183">
+        <v>27</v>
+      </c>
+      <c r="C183" t="s">
+        <v>392</v>
+      </c>
+      <c r="D183" t="s">
+        <v>532</v>
+      </c>
+      <c r="E183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>2354</v>
+      </c>
+      <c r="B184">
+        <v>27</v>
+      </c>
+      <c r="C184" t="s">
+        <v>392</v>
+      </c>
+      <c r="D184" t="s">
+        <v>532</v>
+      </c>
+      <c r="E184">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>2355</v>
+      </c>
+      <c r="B185">
+        <v>27</v>
+      </c>
+      <c r="C185" t="s">
+        <v>392</v>
+      </c>
+      <c r="D185" t="s">
+        <v>532</v>
+      </c>
+      <c r="E185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>2356</v>
+      </c>
+      <c r="B186">
+        <v>27</v>
+      </c>
+      <c r="C186" t="s">
+        <v>392</v>
+      </c>
+      <c r="D186" t="s">
+        <v>532</v>
+      </c>
+      <c r="E186">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>2932</v>
+      </c>
+      <c r="B187">
+        <v>27</v>
+      </c>
+      <c r="C187" t="s">
+        <v>392</v>
+      </c>
+      <c r="D187" t="s">
+        <v>532</v>
+      </c>
+      <c r="E187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>2406</v>
+      </c>
+      <c r="B188">
+        <v>28</v>
+      </c>
+      <c r="C188" t="s">
+        <v>395</v>
+      </c>
+      <c r="D188" t="s">
+        <v>532</v>
+      </c>
+      <c r="E188">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>2551</v>
+      </c>
+      <c r="B189">
+        <v>28</v>
+      </c>
+      <c r="C189" t="s">
+        <v>395</v>
+      </c>
+      <c r="D189" t="s">
+        <v>532</v>
+      </c>
+      <c r="E189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>2555</v>
+      </c>
+      <c r="B190">
+        <v>28</v>
+      </c>
+      <c r="C190" t="s">
+        <v>395</v>
+      </c>
+      <c r="D190" t="s">
+        <v>532</v>
+      </c>
+      <c r="E190">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>2407</v>
+      </c>
+      <c r="B191">
+        <v>29</v>
+      </c>
+      <c r="C191" t="s">
+        <v>399</v>
+      </c>
+      <c r="D191" t="s">
+        <v>532</v>
+      </c>
+      <c r="E191">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>2556</v>
+      </c>
+      <c r="B192">
+        <v>29</v>
+      </c>
+      <c r="C192" t="s">
+        <v>399</v>
+      </c>
+      <c r="D192" t="s">
+        <v>532</v>
+      </c>
+      <c r="E192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>2557</v>
+      </c>
+      <c r="B193">
+        <v>29</v>
+      </c>
+      <c r="C193" t="s">
+        <v>399</v>
+      </c>
+      <c r="D193" t="s">
+        <v>532</v>
+      </c>
+      <c r="E193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>2653</v>
+      </c>
+      <c r="B194">
+        <v>29</v>
+      </c>
+      <c r="C194" t="s">
+        <v>399</v>
+      </c>
+      <c r="D194" t="s">
+        <v>532</v>
+      </c>
+      <c r="E194">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>2922</v>
+      </c>
+      <c r="B195">
+        <v>30</v>
+      </c>
+      <c r="C195" t="s">
+        <v>512</v>
+      </c>
+      <c r="D195" t="s">
+        <v>532</v>
+      </c>
+      <c r="E195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>2414</v>
+      </c>
+      <c r="B196">
+        <v>31</v>
+      </c>
+      <c r="C196" t="s">
+        <v>513</v>
+      </c>
+      <c r="D196" t="s">
+        <v>532</v>
+      </c>
+      <c r="E196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>2415</v>
+      </c>
+      <c r="B197">
+        <v>31</v>
+      </c>
+      <c r="C197" t="s">
+        <v>513</v>
+      </c>
+      <c r="D197" t="s">
+        <v>532</v>
+      </c>
+      <c r="E197">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>2554</v>
+      </c>
+      <c r="B198">
+        <v>31</v>
+      </c>
+      <c r="C198" t="s">
+        <v>513</v>
+      </c>
+      <c r="D198" t="s">
+        <v>532</v>
+      </c>
+      <c r="E198">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>2664</v>
+      </c>
+      <c r="B199">
+        <v>31</v>
+      </c>
+      <c r="C199" t="s">
+        <v>513</v>
+      </c>
+      <c r="D199" t="s">
+        <v>532</v>
+      </c>
+      <c r="E199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>2902</v>
+      </c>
+      <c r="B200">
+        <v>31</v>
+      </c>
+      <c r="C200" t="s">
+        <v>513</v>
+      </c>
+      <c r="D200" t="s">
+        <v>532</v>
+      </c>
+      <c r="E200">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>2904</v>
+      </c>
+      <c r="B201">
+        <v>31</v>
+      </c>
+      <c r="C201" t="s">
+        <v>513</v>
+      </c>
+      <c r="D201" t="s">
+        <v>532</v>
+      </c>
+      <c r="E201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>2906</v>
+      </c>
+      <c r="B202">
+        <v>31</v>
+      </c>
+      <c r="C202" t="s">
+        <v>513</v>
+      </c>
+      <c r="D202" t="s">
+        <v>532</v>
+      </c>
+      <c r="E202">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>2907</v>
+      </c>
+      <c r="B203">
+        <v>31</v>
+      </c>
+      <c r="C203" t="s">
+        <v>513</v>
+      </c>
+      <c r="D203" t="s">
+        <v>532</v>
+      </c>
+      <c r="E203">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>2909</v>
+      </c>
+      <c r="B204">
+        <v>31</v>
+      </c>
+      <c r="C204" t="s">
+        <v>513</v>
+      </c>
+      <c r="D204" t="s">
+        <v>532</v>
+      </c>
+      <c r="E204">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>2913</v>
+      </c>
+      <c r="B205">
+        <v>31</v>
+      </c>
+      <c r="C205" t="s">
+        <v>513</v>
+      </c>
+      <c r="D205" t="s">
+        <v>532</v>
+      </c>
+      <c r="E205">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>2914</v>
+      </c>
+      <c r="B206">
+        <v>31</v>
+      </c>
+      <c r="C206" t="s">
+        <v>513</v>
+      </c>
+      <c r="D206" t="s">
+        <v>532</v>
+      </c>
+      <c r="E206">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>2916</v>
+      </c>
+      <c r="B207">
+        <v>31</v>
+      </c>
+      <c r="C207" t="s">
+        <v>513</v>
+      </c>
+      <c r="D207" t="s">
+        <v>532</v>
+      </c>
+      <c r="E207">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>2917</v>
+      </c>
+      <c r="B208">
+        <v>31</v>
+      </c>
+      <c r="C208" t="s">
+        <v>513</v>
+      </c>
+      <c r="D208" t="s">
+        <v>532</v>
+      </c>
+      <c r="E208">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>2921</v>
+      </c>
+      <c r="B209">
+        <v>31</v>
+      </c>
+      <c r="C209" t="s">
+        <v>513</v>
+      </c>
+      <c r="D209" t="s">
+        <v>532</v>
+      </c>
+      <c r="E209">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>2925</v>
+      </c>
+      <c r="B210">
+        <v>31</v>
+      </c>
+      <c r="C210" t="s">
+        <v>513</v>
+      </c>
+      <c r="D210" t="s">
+        <v>532</v>
+      </c>
+      <c r="E210">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>2663</v>
+      </c>
+      <c r="B211">
+        <v>32</v>
+      </c>
+      <c r="C211" t="s">
+        <v>514</v>
+      </c>
+      <c r="D211" t="s">
+        <v>532</v>
+      </c>
+      <c r="E211">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>2901</v>
+      </c>
+      <c r="B212">
+        <v>32</v>
+      </c>
+      <c r="C212" t="s">
+        <v>514</v>
+      </c>
+      <c r="D212" t="s">
+        <v>532</v>
+      </c>
+      <c r="E212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>2903</v>
+      </c>
+      <c r="B213">
+        <v>32</v>
+      </c>
+      <c r="C213" t="s">
+        <v>514</v>
+      </c>
+      <c r="D213" t="s">
+        <v>532</v>
+      </c>
+      <c r="E213">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>2905</v>
+      </c>
+      <c r="B214">
+        <v>32</v>
+      </c>
+      <c r="C214" t="s">
+        <v>514</v>
+      </c>
+      <c r="D214" t="s">
+        <v>532</v>
+      </c>
+      <c r="E214">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>2908</v>
+      </c>
+      <c r="B215">
+        <v>32</v>
+      </c>
+      <c r="C215" t="s">
+        <v>514</v>
+      </c>
+      <c r="D215" t="s">
+        <v>532</v>
+      </c>
+      <c r="E215">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>2910</v>
+      </c>
+      <c r="B216">
+        <v>32</v>
+      </c>
+      <c r="C216" t="s">
+        <v>514</v>
+      </c>
+      <c r="D216" t="s">
+        <v>532</v>
+      </c>
+      <c r="E216">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>2911</v>
+      </c>
+      <c r="B217">
+        <v>32</v>
+      </c>
+      <c r="C217" t="s">
+        <v>514</v>
+      </c>
+      <c r="D217" t="s">
+        <v>532</v>
+      </c>
+      <c r="E217">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>2912</v>
+      </c>
+      <c r="B218">
+        <v>32</v>
+      </c>
+      <c r="C218" t="s">
+        <v>514</v>
+      </c>
+      <c r="D218" t="s">
+        <v>532</v>
+      </c>
+      <c r="E218">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>2915</v>
+      </c>
+      <c r="B219">
+        <v>32</v>
+      </c>
+      <c r="C219" t="s">
+        <v>514</v>
+      </c>
+      <c r="D219" t="s">
+        <v>532</v>
+      </c>
+      <c r="E219">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>2920</v>
+      </c>
+      <c r="B220">
+        <v>32</v>
+      </c>
+      <c r="C220" t="s">
+        <v>514</v>
+      </c>
+      <c r="D220" t="s">
+        <v>532</v>
+      </c>
+      <c r="E220">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>2923</v>
+      </c>
+      <c r="B221">
+        <v>32</v>
+      </c>
+      <c r="C221" t="s">
+        <v>514</v>
+      </c>
+      <c r="D221" t="s">
+        <v>532</v>
+      </c>
+      <c r="E221">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>2924</v>
+      </c>
+      <c r="B222">
+        <v>32</v>
+      </c>
+      <c r="C222" t="s">
+        <v>514</v>
+      </c>
+      <c r="D222" t="s">
+        <v>532</v>
+      </c>
+      <c r="E222">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>2931</v>
+      </c>
+      <c r="B223">
+        <v>32</v>
+      </c>
+      <c r="C223" t="s">
+        <v>514</v>
+      </c>
+      <c r="D223" t="s">
+        <v>532</v>
+      </c>
+      <c r="E223">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>2933</v>
+      </c>
+      <c r="B224">
+        <v>32</v>
+      </c>
+      <c r="C224" t="s">
+        <v>514</v>
+      </c>
+      <c r="D224" t="s">
+        <v>532</v>
+      </c>
+      <c r="E224">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>2934</v>
+      </c>
+      <c r="B225">
+        <v>32</v>
+      </c>
+      <c r="C225" t="s">
+        <v>514</v>
+      </c>
+      <c r="D225" t="s">
+        <v>532</v>
+      </c>
+      <c r="E225">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>2949</v>
+      </c>
+      <c r="B226">
+        <v>32</v>
+      </c>
+      <c r="C226" t="s">
+        <v>514</v>
+      </c>
+      <c r="D226" t="s">
+        <v>532</v>
+      </c>
+      <c r="E226">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>3101</v>
+      </c>
+      <c r="B227">
+        <v>33</v>
+      </c>
+      <c r="C227" t="s">
+        <v>377</v>
+      </c>
+      <c r="D227" t="s">
+        <v>533</v>
+      </c>
+      <c r="E227">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>3102</v>
+      </c>
+      <c r="B228">
+        <v>33</v>
+      </c>
+      <c r="C228" t="s">
+        <v>377</v>
+      </c>
+      <c r="D228" t="s">
+        <v>533</v>
+      </c>
+      <c r="E228">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>3126</v>
+      </c>
+      <c r="B229">
+        <v>33</v>
+      </c>
+      <c r="C229" t="s">
+        <v>377</v>
+      </c>
+      <c r="D229" t="s">
+        <v>533</v>
+      </c>
+      <c r="E229">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>3127</v>
+      </c>
+      <c r="B230">
+        <v>33</v>
+      </c>
+      <c r="C230" t="s">
+        <v>377</v>
+      </c>
+      <c r="D230" t="s">
+        <v>533</v>
+      </c>
+      <c r="E230">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>3128</v>
+      </c>
+      <c r="B231">
+        <v>33</v>
+      </c>
+      <c r="C231" t="s">
+        <v>377</v>
+      </c>
+      <c r="D231" t="s">
+        <v>533</v>
+      </c>
+      <c r="E231">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>3651</v>
+      </c>
+      <c r="B232">
+        <v>33</v>
+      </c>
+      <c r="C232" t="s">
+        <v>377</v>
+      </c>
+      <c r="D232" t="s">
+        <v>533</v>
+      </c>
+      <c r="E232">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>3652</v>
+      </c>
+      <c r="B233">
+        <v>33</v>
+      </c>
+      <c r="C233" t="s">
+        <v>377</v>
+      </c>
+      <c r="D233" t="s">
+        <v>533</v>
+      </c>
+      <c r="E233">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>3201</v>
+      </c>
+      <c r="B234">
+        <v>35</v>
+      </c>
+      <c r="C234" t="s">
+        <v>383</v>
+      </c>
+      <c r="D234" t="s">
+        <v>533</v>
+      </c>
+      <c r="E234">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>3202</v>
+      </c>
+      <c r="B235">
+        <v>35</v>
+      </c>
+      <c r="C235" t="s">
+        <v>383</v>
+      </c>
+      <c r="D235" t="s">
+        <v>533</v>
+      </c>
+      <c r="E235">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>3205</v>
+      </c>
+      <c r="B236">
+        <v>35</v>
+      </c>
+      <c r="C236" t="s">
+        <v>383</v>
+      </c>
+      <c r="D236" t="s">
+        <v>533</v>
+      </c>
+      <c r="E236">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>3206</v>
+      </c>
+      <c r="B237">
+        <v>35</v>
+      </c>
+      <c r="C237" t="s">
+        <v>383</v>
+      </c>
+      <c r="D237" t="s">
+        <v>533</v>
+      </c>
+      <c r="E237">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>3207</v>
+      </c>
+      <c r="B238">
+        <v>35</v>
+      </c>
+      <c r="C238" t="s">
+        <v>383</v>
+      </c>
+      <c r="D238" t="s">
+        <v>533</v>
+      </c>
+      <c r="E238">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>3211</v>
+      </c>
+      <c r="B239">
+        <v>35</v>
+      </c>
+      <c r="C239" t="s">
+        <v>383</v>
+      </c>
+      <c r="D239" t="s">
+        <v>533</v>
+      </c>
+      <c r="E239">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>3503</v>
+      </c>
+      <c r="B240">
+        <v>35</v>
+      </c>
+      <c r="C240" t="s">
+        <v>383</v>
+      </c>
+      <c r="D240" t="s">
+        <v>533</v>
+      </c>
+      <c r="E240">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>3553</v>
+      </c>
+      <c r="B241">
+        <v>35</v>
+      </c>
+      <c r="C241" t="s">
+        <v>383</v>
+      </c>
+      <c r="D241" t="s">
+        <v>533</v>
+      </c>
+      <c r="E241">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>3251</v>
+      </c>
+      <c r="B242">
+        <v>36</v>
+      </c>
+      <c r="C242" t="s">
+        <v>386</v>
+      </c>
+      <c r="D242" t="s">
+        <v>533</v>
+      </c>
+      <c r="E242">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>3301</v>
+      </c>
+      <c r="B243">
+        <v>37</v>
+      </c>
+      <c r="C243" t="s">
+        <v>389</v>
+      </c>
+      <c r="D243" t="s">
+        <v>533</v>
+      </c>
+      <c r="E243">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>3351</v>
+      </c>
+      <c r="B244">
+        <v>38</v>
+      </c>
+      <c r="C244" t="s">
+        <v>392</v>
+      </c>
+      <c r="D244" t="s">
+        <v>533</v>
+      </c>
+      <c r="E244">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>3352</v>
+      </c>
+      <c r="B245">
+        <v>38</v>
+      </c>
+      <c r="C245" t="s">
+        <v>392</v>
+      </c>
+      <c r="D245" t="s">
+        <v>533</v>
+      </c>
+      <c r="E245">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>3353</v>
+      </c>
+      <c r="B246">
+        <v>38</v>
+      </c>
+      <c r="C246" t="s">
+        <v>392</v>
+      </c>
+      <c r="D246" t="s">
+        <v>533</v>
+      </c>
+      <c r="E246">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>3354</v>
+      </c>
+      <c r="B247">
+        <v>38</v>
+      </c>
+      <c r="C247" t="s">
+        <v>392</v>
+      </c>
+      <c r="D247" t="s">
+        <v>533</v>
+      </c>
+      <c r="E247">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>3355</v>
+      </c>
+      <c r="B248">
+        <v>38</v>
+      </c>
+      <c r="C248" t="s">
+        <v>392</v>
+      </c>
+      <c r="D248" t="s">
+        <v>533</v>
+      </c>
+      <c r="E248">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>3356</v>
+      </c>
+      <c r="B249">
+        <v>38</v>
+      </c>
+      <c r="C249" t="s">
+        <v>392</v>
+      </c>
+      <c r="D249" t="s">
+        <v>533</v>
+      </c>
+      <c r="E249">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>3551</v>
+      </c>
+      <c r="B250">
+        <v>39</v>
+      </c>
+      <c r="C250" t="s">
+        <v>395</v>
+      </c>
+      <c r="D250" t="s">
+        <v>533</v>
+      </c>
+      <c r="E250">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>3556</v>
+      </c>
+      <c r="B251">
+        <v>40</v>
+      </c>
+      <c r="C251" t="s">
+        <v>399</v>
+      </c>
+      <c r="D251" t="s">
+        <v>533</v>
+      </c>
+      <c r="E251">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>3653</v>
+      </c>
+      <c r="B252">
+        <v>40</v>
+      </c>
+      <c r="C252" t="s">
+        <v>399</v>
+      </c>
+      <c r="D252" t="s">
+        <v>533</v>
+      </c>
+      <c r="E252">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>3930</v>
+      </c>
+      <c r="B253">
+        <v>43</v>
+      </c>
+      <c r="C253" t="s">
+        <v>514</v>
+      </c>
+      <c r="D253" t="s">
+        <v>533</v>
+      </c>
+      <c r="E253">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>3949</v>
+      </c>
+      <c r="B254">
+        <v>43</v>
+      </c>
+      <c r="C254" t="s">
+        <v>514</v>
+      </c>
+      <c r="D254" t="s">
+        <v>533</v>
+      </c>
+      <c r="E254">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>5101</v>
+      </c>
+      <c r="B255">
+        <v>44</v>
+      </c>
+      <c r="C255" t="s">
+        <v>456</v>
+      </c>
+      <c r="D255" t="s">
+        <v>534</v>
+      </c>
+      <c r="E255">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>5102</v>
+      </c>
+      <c r="B256">
+        <v>44</v>
+      </c>
+      <c r="C256" t="s">
+        <v>456</v>
+      </c>
+      <c r="D256" t="s">
+        <v>534</v>
+      </c>
+      <c r="E256">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>5103</v>
+      </c>
+      <c r="B257">
+        <v>44</v>
+      </c>
+      <c r="C257" t="s">
+        <v>456</v>
+      </c>
+      <c r="D257" t="s">
+        <v>534</v>
+      </c>
+      <c r="E257">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>5104</v>
+      </c>
+      <c r="B258">
+        <v>44</v>
+      </c>
+      <c r="C258" t="s">
+        <v>456</v>
+      </c>
+      <c r="D258" t="s">
+        <v>534</v>
+      </c>
+      <c r="E258">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>5105</v>
+      </c>
+      <c r="B259">
+        <v>44</v>
+      </c>
+      <c r="C259" t="s">
+        <v>456</v>
+      </c>
+      <c r="D259" t="s">
+        <v>534</v>
+      </c>
+      <c r="E259">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>5106</v>
+      </c>
+      <c r="B260">
+        <v>44</v>
+      </c>
+      <c r="C260" t="s">
+        <v>456</v>
+      </c>
+      <c r="D260" t="s">
+        <v>534</v>
+      </c>
+      <c r="E260">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>5109</v>
+      </c>
+      <c r="B261">
+        <v>44</v>
+      </c>
+      <c r="C261" t="s">
+        <v>456</v>
+      </c>
+      <c r="D261" t="s">
+        <v>534</v>
+      </c>
+      <c r="E261">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>5110</v>
+      </c>
+      <c r="B262">
+        <v>44</v>
+      </c>
+      <c r="C262" t="s">
+        <v>456</v>
+      </c>
+      <c r="D262" t="s">
+        <v>534</v>
+      </c>
+      <c r="E262">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>5111</v>
+      </c>
+      <c r="B263">
+        <v>44</v>
+      </c>
+      <c r="C263" t="s">
+        <v>456</v>
+      </c>
+      <c r="D263" t="s">
+        <v>534</v>
+      </c>
+      <c r="E263">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>5112</v>
+      </c>
+      <c r="B264">
+        <v>44</v>
+      </c>
+      <c r="C264" t="s">
+        <v>456</v>
+      </c>
+      <c r="D264" t="s">
+        <v>534</v>
+      </c>
+      <c r="E264">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>5113</v>
+      </c>
+      <c r="B265">
+        <v>44</v>
+      </c>
+      <c r="C265" t="s">
+        <v>456</v>
+      </c>
+      <c r="D265" t="s">
+        <v>534</v>
+      </c>
+      <c r="E265">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>5114</v>
+      </c>
+      <c r="B266">
+        <v>44</v>
+      </c>
+      <c r="C266" t="s">
+        <v>456</v>
+      </c>
+      <c r="D266" t="s">
+        <v>534</v>
+      </c>
+      <c r="E266">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>5115</v>
+      </c>
+      <c r="B267">
+        <v>44</v>
+      </c>
+      <c r="C267" t="s">
+        <v>456</v>
+      </c>
+      <c r="D267" t="s">
+        <v>534</v>
+      </c>
+      <c r="E267">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>5116</v>
+      </c>
+      <c r="B268">
+        <v>44</v>
+      </c>
+      <c r="C268" t="s">
+        <v>456</v>
+      </c>
+      <c r="D268" t="s">
+        <v>534</v>
+      </c>
+      <c r="E268">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>5117</v>
+      </c>
+      <c r="B269">
+        <v>44</v>
+      </c>
+      <c r="C269" t="s">
+        <v>456</v>
+      </c>
+      <c r="D269" t="s">
+        <v>534</v>
+      </c>
+      <c r="E269">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>5118</v>
+      </c>
+      <c r="B270">
+        <v>44</v>
+      </c>
+      <c r="C270" t="s">
+        <v>456</v>
+      </c>
+      <c r="D270" t="s">
+        <v>534</v>
+      </c>
+      <c r="E270">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>5119</v>
+      </c>
+      <c r="B271">
+        <v>44</v>
+      </c>
+      <c r="C271" t="s">
+        <v>456</v>
+      </c>
+      <c r="D271" t="s">
+        <v>534</v>
+      </c>
+      <c r="E271">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>5120</v>
+      </c>
+      <c r="B272">
+        <v>44</v>
+      </c>
+      <c r="C272" t="s">
+        <v>456</v>
+      </c>
+      <c r="D272" t="s">
+        <v>534</v>
+      </c>
+      <c r="E272">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>5122</v>
+      </c>
+      <c r="B273">
+        <v>44</v>
+      </c>
+      <c r="C273" t="s">
+        <v>456</v>
+      </c>
+      <c r="D273" t="s">
+        <v>534</v>
+      </c>
+      <c r="E273">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>5123</v>
+      </c>
+      <c r="B274">
+        <v>44</v>
+      </c>
+      <c r="C274" t="s">
+        <v>456</v>
+      </c>
+      <c r="D274" t="s">
+        <v>534</v>
+      </c>
+      <c r="E274">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>5124</v>
+      </c>
+      <c r="B275">
+        <v>44</v>
+      </c>
+      <c r="C275" t="s">
+        <v>456</v>
+      </c>
+      <c r="D275" t="s">
+        <v>534</v>
+      </c>
+      <c r="E275">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>5125</v>
+      </c>
+      <c r="B276">
+        <v>44</v>
+      </c>
+      <c r="C276" t="s">
+        <v>456</v>
+      </c>
+      <c r="D276" t="s">
+        <v>534</v>
+      </c>
+      <c r="E276">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>5401</v>
+      </c>
+      <c r="B277">
+        <v>44</v>
+      </c>
+      <c r="C277" t="s">
+        <v>456</v>
+      </c>
+      <c r="D277" t="s">
+        <v>534</v>
+      </c>
+      <c r="E277">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>5402</v>
+      </c>
+      <c r="B278">
+        <v>44</v>
+      </c>
+      <c r="C278" t="s">
+        <v>456</v>
+      </c>
+      <c r="D278" t="s">
+        <v>534</v>
+      </c>
+      <c r="E278">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>5403</v>
+      </c>
+      <c r="B279">
+        <v>44</v>
+      </c>
+      <c r="C279" t="s">
+        <v>456</v>
+      </c>
+      <c r="D279" t="s">
+        <v>534</v>
+      </c>
+      <c r="E279">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>5405</v>
+      </c>
+      <c r="B280">
+        <v>44</v>
+      </c>
+      <c r="C280" t="s">
+        <v>456</v>
+      </c>
+      <c r="D280" t="s">
+        <v>534</v>
+      </c>
+      <c r="E280">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>5651</v>
+      </c>
+      <c r="B281">
+        <v>44</v>
+      </c>
+      <c r="C281" t="s">
+        <v>456</v>
+      </c>
+      <c r="D281" t="s">
+        <v>534</v>
+      </c>
+      <c r="E281">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>5652</v>
+      </c>
+      <c r="B282">
+        <v>44</v>
+      </c>
+      <c r="C282" t="s">
+        <v>456</v>
+      </c>
+      <c r="D282" t="s">
+        <v>534</v>
+      </c>
+      <c r="E282">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>5654</v>
+      </c>
+      <c r="B283">
+        <v>44</v>
+      </c>
+      <c r="C283" t="s">
+        <v>456</v>
+      </c>
+      <c r="D283" t="s">
+        <v>534</v>
+      </c>
+      <c r="E283">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>5655</v>
+      </c>
+      <c r="B284">
+        <v>44</v>
+      </c>
+      <c r="C284" t="s">
+        <v>456</v>
+      </c>
+      <c r="D284" t="s">
+        <v>534</v>
+      </c>
+      <c r="E284">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>5151</v>
+      </c>
+      <c r="B285">
+        <v>45</v>
+      </c>
+      <c r="C285" t="s">
+        <v>511</v>
+      </c>
+      <c r="D285" t="s">
+        <v>534</v>
+      </c>
+      <c r="E285">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>5152</v>
+      </c>
+      <c r="B286">
+        <v>45</v>
+      </c>
+      <c r="C286" t="s">
+        <v>511</v>
+      </c>
+      <c r="D286" t="s">
+        <v>534</v>
+      </c>
+      <c r="E286">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>5153</v>
+      </c>
+      <c r="B287">
+        <v>45</v>
+      </c>
+      <c r="C287" t="s">
+        <v>511</v>
+      </c>
+      <c r="D287" t="s">
+        <v>534</v>
+      </c>
+      <c r="E287">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>5155</v>
+      </c>
+      <c r="B288">
+        <v>45</v>
+      </c>
+      <c r="C288" t="s">
+        <v>511</v>
+      </c>
+      <c r="D288" t="s">
+        <v>534</v>
+      </c>
+      <c r="E288">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>5156</v>
+      </c>
+      <c r="B289">
+        <v>45</v>
+      </c>
+      <c r="C289" t="s">
+        <v>511</v>
+      </c>
+      <c r="D289" t="s">
+        <v>534</v>
+      </c>
+      <c r="E289">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>5408</v>
+      </c>
+      <c r="B290">
+        <v>45</v>
+      </c>
+      <c r="C290" t="s">
+        <v>511</v>
+      </c>
+      <c r="D290" t="s">
+        <v>534</v>
+      </c>
+      <c r="E290">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>5409</v>
+      </c>
+      <c r="B291">
+        <v>45</v>
+      </c>
+      <c r="C291" t="s">
+        <v>511</v>
+      </c>
+      <c r="D291" t="s">
+        <v>534</v>
+      </c>
+      <c r="E291">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>5552</v>
+      </c>
+      <c r="B292">
+        <v>45</v>
+      </c>
+      <c r="C292" t="s">
+        <v>511</v>
+      </c>
+      <c r="D292" t="s">
+        <v>534</v>
+      </c>
+      <c r="E292">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>5557</v>
+      </c>
+      <c r="B293">
+        <v>45</v>
+      </c>
+      <c r="C293" t="s">
+        <v>511</v>
+      </c>
+      <c r="D293" t="s">
+        <v>534</v>
+      </c>
+      <c r="E293">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>5658</v>
+      </c>
+      <c r="B294">
+        <v>45</v>
+      </c>
+      <c r="C294" t="s">
+        <v>511</v>
+      </c>
+      <c r="D294" t="s">
+        <v>534</v>
+      </c>
+      <c r="E294">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>5659</v>
+      </c>
+      <c r="B295">
+        <v>45</v>
+      </c>
+      <c r="C295" t="s">
+        <v>511</v>
+      </c>
+      <c r="D295" t="s">
+        <v>534</v>
+      </c>
+      <c r="E295">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>5201</v>
+      </c>
+      <c r="B296">
+        <v>46</v>
+      </c>
+      <c r="C296" t="s">
+        <v>383</v>
+      </c>
+      <c r="D296" t="s">
+        <v>534</v>
+      </c>
+      <c r="E296">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>5202</v>
+      </c>
+      <c r="B297">
+        <v>46</v>
+      </c>
+      <c r="C297" t="s">
+        <v>383</v>
+      </c>
+      <c r="D297" t="s">
+        <v>534</v>
+      </c>
+      <c r="E297">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>5205</v>
+      </c>
+      <c r="B298">
+        <v>46</v>
+      </c>
+      <c r="C298" t="s">
+        <v>383</v>
+      </c>
+      <c r="D298" t="s">
+        <v>534</v>
+      </c>
+      <c r="E298">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>5206</v>
+      </c>
+      <c r="B299">
+        <v>46</v>
+      </c>
+      <c r="C299" t="s">
+        <v>383</v>
+      </c>
+      <c r="D299" t="s">
+        <v>534</v>
+      </c>
+      <c r="E299">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>5207</v>
+      </c>
+      <c r="B300">
+        <v>46</v>
+      </c>
+      <c r="C300" t="s">
+        <v>383</v>
+      </c>
+      <c r="D300" t="s">
+        <v>534</v>
+      </c>
+      <c r="E300">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>5208</v>
+      </c>
+      <c r="B301">
+        <v>46</v>
+      </c>
+      <c r="C301" t="s">
+        <v>383</v>
+      </c>
+      <c r="D301" t="s">
+        <v>534</v>
+      </c>
+      <c r="E301">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>5209</v>
+      </c>
+      <c r="B302">
+        <v>46</v>
+      </c>
+      <c r="C302" t="s">
+        <v>383</v>
+      </c>
+      <c r="D302" t="s">
+        <v>534</v>
+      </c>
+      <c r="E302">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>5210</v>
+      </c>
+      <c r="B303">
+        <v>46</v>
+      </c>
+      <c r="C303" t="s">
+        <v>383</v>
+      </c>
+      <c r="D303" t="s">
+        <v>534</v>
+      </c>
+      <c r="E303">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>5410</v>
+      </c>
+      <c r="B304">
+        <v>46</v>
+      </c>
+      <c r="C304" t="s">
+        <v>383</v>
+      </c>
+      <c r="D304" t="s">
+        <v>534</v>
+      </c>
+      <c r="E304">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>5411</v>
+      </c>
+      <c r="B305">
+        <v>46</v>
+      </c>
+      <c r="C305" t="s">
+        <v>383</v>
+      </c>
+      <c r="D305" t="s">
+        <v>534</v>
+      </c>
+      <c r="E305">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>5412</v>
+      </c>
+      <c r="B306">
+        <v>46</v>
+      </c>
+      <c r="C306" t="s">
+        <v>383</v>
+      </c>
+      <c r="D306" t="s">
+        <v>534</v>
+      </c>
+      <c r="E306">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>5413</v>
+      </c>
+      <c r="B307">
+        <v>46</v>
+      </c>
+      <c r="C307" t="s">
+        <v>383</v>
+      </c>
+      <c r="D307" t="s">
+        <v>534</v>
+      </c>
+      <c r="E307">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>5503</v>
+      </c>
+      <c r="B308">
+        <v>46</v>
+      </c>
+      <c r="C308" t="s">
+        <v>383</v>
+      </c>
+      <c r="D308" t="s">
+        <v>534</v>
+      </c>
+      <c r="E308">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>5553</v>
+      </c>
+      <c r="B309">
+        <v>46</v>
+      </c>
+      <c r="C309" t="s">
+        <v>383</v>
+      </c>
+      <c r="D309" t="s">
+        <v>534</v>
+      </c>
+      <c r="E309">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>5555</v>
+      </c>
+      <c r="B310">
+        <v>46</v>
+      </c>
+      <c r="C310" t="s">
+        <v>383</v>
+      </c>
+      <c r="D310" t="s">
+        <v>534</v>
+      </c>
+      <c r="E310">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>5556</v>
+      </c>
+      <c r="B311">
+        <v>46</v>
+      </c>
+      <c r="C311" t="s">
+        <v>383</v>
+      </c>
+      <c r="D311" t="s">
+        <v>534</v>
+      </c>
+      <c r="E311">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>5660</v>
+      </c>
+      <c r="B312">
+        <v>46</v>
+      </c>
+      <c r="C312" t="s">
+        <v>383</v>
+      </c>
+      <c r="D312" t="s">
+        <v>534</v>
+      </c>
+      <c r="E312">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>5661</v>
+      </c>
+      <c r="B313">
+        <v>46</v>
+      </c>
+      <c r="C313" t="s">
+        <v>383</v>
+      </c>
+      <c r="D313" t="s">
+        <v>534</v>
+      </c>
+      <c r="E313">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>5662</v>
+      </c>
+      <c r="B314">
+        <v>46</v>
+      </c>
+      <c r="C314" t="s">
+        <v>383</v>
+      </c>
+      <c r="D314" t="s">
+        <v>534</v>
+      </c>
+      <c r="E314">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>5918</v>
+      </c>
+      <c r="B315">
+        <v>46</v>
+      </c>
+      <c r="C315" t="s">
+        <v>383</v>
+      </c>
+      <c r="D315" t="s">
+        <v>534</v>
+      </c>
+      <c r="E315">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>5919</v>
+      </c>
+      <c r="B316">
+        <v>46</v>
+      </c>
+      <c r="C316" t="s">
+        <v>383</v>
+      </c>
+      <c r="D316" t="s">
+        <v>534</v>
+      </c>
+      <c r="E316">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>5921</v>
+      </c>
+      <c r="B317">
+        <v>46</v>
+      </c>
+      <c r="C317" t="s">
+        <v>383</v>
+      </c>
+      <c r="D317" t="s">
+        <v>534</v>
+      </c>
+      <c r="E317">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>5251</v>
+      </c>
+      <c r="B318">
+        <v>47</v>
+      </c>
+      <c r="C318" t="s">
+        <v>386</v>
+      </c>
+      <c r="D318" t="s">
+        <v>534</v>
+      </c>
+      <c r="E318">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>5252</v>
+      </c>
+      <c r="B319">
+        <v>47</v>
+      </c>
+      <c r="C319" t="s">
+        <v>386</v>
+      </c>
+      <c r="D319" t="s">
+        <v>534</v>
+      </c>
+      <c r="E319">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>5253</v>
+      </c>
+      <c r="B320">
+        <v>47</v>
+      </c>
+      <c r="C320" t="s">
+        <v>386</v>
+      </c>
+      <c r="D320" t="s">
+        <v>534</v>
+      </c>
+      <c r="E320">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>5254</v>
+      </c>
+      <c r="B321">
+        <v>47</v>
+      </c>
+      <c r="C321" t="s">
+        <v>386</v>
+      </c>
+      <c r="D321" t="s">
+        <v>534</v>
+      </c>
+      <c r="E321">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>5255</v>
+      </c>
+      <c r="B322">
+        <v>47</v>
+      </c>
+      <c r="C322" t="s">
+        <v>386</v>
+      </c>
+      <c r="D322" t="s">
+        <v>534</v>
+      </c>
+      <c r="E322">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>5256</v>
+      </c>
+      <c r="B323">
+        <v>47</v>
+      </c>
+      <c r="C323" t="s">
+        <v>386</v>
+      </c>
+      <c r="D323" t="s">
+        <v>534</v>
+      </c>
+      <c r="E323">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>5257</v>
+      </c>
+      <c r="B324">
+        <v>47</v>
+      </c>
+      <c r="C324" t="s">
+        <v>386</v>
+      </c>
+      <c r="D324" t="s">
+        <v>534</v>
+      </c>
+      <c r="E324">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>5258</v>
+      </c>
+      <c r="B325">
+        <v>47</v>
+      </c>
+      <c r="C325" t="s">
+        <v>386</v>
+      </c>
+      <c r="D325" t="s">
+        <v>534</v>
+      </c>
+      <c r="E325">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>5301</v>
+      </c>
+      <c r="B326">
+        <v>48</v>
+      </c>
+      <c r="C326" t="s">
+        <v>389</v>
+      </c>
+      <c r="D326" t="s">
+        <v>534</v>
+      </c>
+      <c r="E326">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>5302</v>
+      </c>
+      <c r="B327">
+        <v>48</v>
+      </c>
+      <c r="C327" t="s">
+        <v>389</v>
+      </c>
+      <c r="D327" t="s">
+        <v>534</v>
+      </c>
+      <c r="E327">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>5303</v>
+      </c>
+      <c r="B328">
+        <v>48</v>
+      </c>
+      <c r="C328" t="s">
+        <v>389</v>
+      </c>
+      <c r="D328" t="s">
+        <v>534</v>
+      </c>
+      <c r="E328">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>5304</v>
+      </c>
+      <c r="B329">
+        <v>48</v>
+      </c>
+      <c r="C329" t="s">
+        <v>389</v>
+      </c>
+      <c r="D329" t="s">
+        <v>534</v>
+      </c>
+      <c r="E329">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>5305</v>
+      </c>
+      <c r="B330">
+        <v>48</v>
+      </c>
+      <c r="C330" t="s">
+        <v>389</v>
+      </c>
+      <c r="D330" t="s">
+        <v>534</v>
+      </c>
+      <c r="E330">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>5306</v>
+      </c>
+      <c r="B331">
+        <v>48</v>
+      </c>
+      <c r="C331" t="s">
+        <v>389</v>
+      </c>
+      <c r="D331" t="s">
+        <v>534</v>
+      </c>
+      <c r="E331">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>5307</v>
+      </c>
+      <c r="B332">
+        <v>48</v>
+      </c>
+      <c r="C332" t="s">
+        <v>389</v>
+      </c>
+      <c r="D332" t="s">
+        <v>534</v>
+      </c>
+      <c r="E332">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>5351</v>
+      </c>
+      <c r="B333">
+        <v>49</v>
+      </c>
+      <c r="C333" t="s">
+        <v>392</v>
+      </c>
+      <c r="D333" t="s">
+        <v>534</v>
+      </c>
+      <c r="E333">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>5352</v>
+      </c>
+      <c r="B334">
+        <v>49</v>
+      </c>
+      <c r="C334" t="s">
+        <v>392</v>
+      </c>
+      <c r="D334" t="s">
+        <v>534</v>
+      </c>
+      <c r="E334">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>5353</v>
+      </c>
+      <c r="B335">
+        <v>49</v>
+      </c>
+      <c r="C335" t="s">
+        <v>392</v>
+      </c>
+      <c r="D335" t="s">
+        <v>534</v>
+      </c>
+      <c r="E335">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>5354</v>
+      </c>
+      <c r="B336">
+        <v>49</v>
+      </c>
+      <c r="C336" t="s">
+        <v>392</v>
+      </c>
+      <c r="D336" t="s">
+        <v>534</v>
+      </c>
+      <c r="E336">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>5355</v>
+      </c>
+      <c r="B337">
+        <v>49</v>
+      </c>
+      <c r="C337" t="s">
+        <v>392</v>
+      </c>
+      <c r="D337" t="s">
+        <v>534</v>
+      </c>
+      <c r="E337">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>5356</v>
+      </c>
+      <c r="B338">
+        <v>49</v>
+      </c>
+      <c r="C338" t="s">
+        <v>392</v>
+      </c>
+      <c r="D338" t="s">
+        <v>534</v>
+      </c>
+      <c r="E338">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>5357</v>
+      </c>
+      <c r="B339">
+        <v>49</v>
+      </c>
+      <c r="C339" t="s">
+        <v>392</v>
+      </c>
+      <c r="D339" t="s">
+        <v>534</v>
+      </c>
+      <c r="E339">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>5359</v>
+      </c>
+      <c r="B340">
+        <v>49</v>
+      </c>
+      <c r="C340" t="s">
+        <v>392</v>
+      </c>
+      <c r="D340" t="s">
+        <v>534</v>
+      </c>
+      <c r="E340">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>5360</v>
+      </c>
+      <c r="B341">
+        <v>49</v>
+      </c>
+      <c r="C341" t="s">
+        <v>392</v>
+      </c>
+      <c r="D341" t="s">
+        <v>534</v>
+      </c>
+      <c r="E341">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>5932</v>
+      </c>
+      <c r="B342">
+        <v>49</v>
+      </c>
+      <c r="C342" t="s">
+        <v>392</v>
+      </c>
+      <c r="D342" t="s">
+        <v>534</v>
+      </c>
+      <c r="E342">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>5551</v>
+      </c>
+      <c r="B343">
+        <v>50</v>
+      </c>
+      <c r="C343" t="s">
+        <v>395</v>
+      </c>
+      <c r="D343" t="s">
+        <v>534</v>
+      </c>
+      <c r="E343">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>5653</v>
+      </c>
+      <c r="B344">
+        <v>51</v>
+      </c>
+      <c r="C344" t="s">
+        <v>399</v>
+      </c>
+      <c r="D344" t="s">
+        <v>534</v>
+      </c>
+      <c r="E344">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>5656</v>
+      </c>
+      <c r="B345">
+        <v>51</v>
+      </c>
+      <c r="C345" t="s">
+        <v>399</v>
+      </c>
+      <c r="D345" t="s">
+        <v>534</v>
+      </c>
+      <c r="E345">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>5667</v>
+      </c>
+      <c r="B346">
+        <v>51</v>
+      </c>
+      <c r="C346" t="s">
+        <v>399</v>
+      </c>
+      <c r="D346" t="s">
+        <v>534</v>
+      </c>
+      <c r="E346">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>2603</v>
+      </c>
+      <c r="B347">
+        <v>52</v>
+      </c>
+      <c r="C347" t="s">
+        <v>512</v>
+      </c>
+      <c r="D347" t="s">
+        <v>534</v>
+      </c>
+      <c r="E347">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>5601</v>
+      </c>
+      <c r="B348">
+        <v>52</v>
+      </c>
+      <c r="C348" t="s">
+        <v>512</v>
+      </c>
+      <c r="D348" t="s">
+        <v>534</v>
+      </c>
+      <c r="E348">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>5602</v>
+      </c>
+      <c r="B349">
+        <v>52</v>
+      </c>
+      <c r="C349" t="s">
+        <v>512</v>
+      </c>
+      <c r="D349" t="s">
+        <v>534</v>
+      </c>
+      <c r="E349">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>5603</v>
+      </c>
+      <c r="B350">
+        <v>52</v>
+      </c>
+      <c r="C350" t="s">
+        <v>512</v>
+      </c>
+      <c r="D350" t="s">
+        <v>534</v>
+      </c>
+      <c r="E350">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>5605</v>
+      </c>
+      <c r="B351">
+        <v>52</v>
+      </c>
+      <c r="C351" t="s">
+        <v>512</v>
+      </c>
+      <c r="D351" t="s">
+        <v>534</v>
+      </c>
+      <c r="E351">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>5606</v>
+      </c>
+      <c r="B352">
+        <v>52</v>
+      </c>
+      <c r="C352" t="s">
+        <v>512</v>
+      </c>
+      <c r="D352" t="s">
+        <v>534</v>
+      </c>
+      <c r="E352">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>5414</v>
+      </c>
+      <c r="B353">
+        <v>53</v>
+      </c>
+      <c r="C353" t="s">
+        <v>513</v>
+      </c>
+      <c r="D353" t="s">
+        <v>534</v>
+      </c>
+      <c r="E353">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>5415</v>
+      </c>
+      <c r="B354">
+        <v>53</v>
+      </c>
+      <c r="C354" t="s">
+        <v>513</v>
+      </c>
+      <c r="D354" t="s">
+        <v>534</v>
+      </c>
+      <c r="E354">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>5451</v>
+      </c>
+      <c r="B355">
+        <v>53</v>
+      </c>
+      <c r="C355" t="s">
+        <v>513</v>
+      </c>
+      <c r="D355" t="s">
+        <v>534</v>
+      </c>
+      <c r="E355">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>5501</v>
+      </c>
+      <c r="B356">
+        <v>53</v>
+      </c>
+      <c r="C356" t="s">
+        <v>513</v>
+      </c>
+      <c r="D356" t="s">
+        <v>534</v>
+      </c>
+      <c r="E356">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>5502</v>
+      </c>
+      <c r="B357">
+        <v>53</v>
+      </c>
+      <c r="C357" t="s">
+        <v>513</v>
+      </c>
+      <c r="D357" t="s">
+        <v>534</v>
+      </c>
+      <c r="E357">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>5504</v>
+      </c>
+      <c r="B358">
+        <v>53</v>
+      </c>
+      <c r="C358" t="s">
+        <v>513</v>
+      </c>
+      <c r="D358" t="s">
+        <v>534</v>
+      </c>
+      <c r="E358">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>5505</v>
+      </c>
+      <c r="B359">
+        <v>53</v>
+      </c>
+      <c r="C359" t="s">
+        <v>513</v>
+      </c>
+      <c r="D359" t="s">
+        <v>534</v>
+      </c>
+      <c r="E359">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>5554</v>
+      </c>
+      <c r="B360">
+        <v>53</v>
+      </c>
+      <c r="C360" t="s">
+        <v>513</v>
+      </c>
+      <c r="D360" t="s">
+        <v>534</v>
+      </c>
+      <c r="E360">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>5657</v>
+      </c>
+      <c r="B361">
+        <v>53</v>
+      </c>
+      <c r="C361" t="s">
+        <v>513</v>
+      </c>
+      <c r="D361" t="s">
+        <v>534</v>
+      </c>
+      <c r="E361">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>5663</v>
+      </c>
+      <c r="B362">
+        <v>53</v>
+      </c>
+      <c r="C362" t="s">
+        <v>513</v>
+      </c>
+      <c r="D362" t="s">
+        <v>534</v>
+      </c>
+      <c r="E362">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>5664</v>
+      </c>
+      <c r="B363">
+        <v>53</v>
+      </c>
+      <c r="C363" t="s">
+        <v>513</v>
+      </c>
+      <c r="D363" t="s">
+        <v>534</v>
+      </c>
+      <c r="E363">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>5665</v>
+      </c>
+      <c r="B364">
+        <v>53</v>
+      </c>
+      <c r="C364" t="s">
+        <v>513</v>
+      </c>
+      <c r="D364" t="s">
+        <v>534</v>
+      </c>
+      <c r="E364">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>5666</v>
+      </c>
+      <c r="B365">
+        <v>53</v>
+      </c>
+      <c r="C365" t="s">
+        <v>513</v>
+      </c>
+      <c r="D365" t="s">
+        <v>534</v>
+      </c>
+      <c r="E365">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>5901</v>
+      </c>
+      <c r="B366">
+        <v>53</v>
+      </c>
+      <c r="C366" t="s">
+        <v>513</v>
+      </c>
+      <c r="D366" t="s">
+        <v>534</v>
+      </c>
+      <c r="E366">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>5902</v>
+      </c>
+      <c r="B367">
+        <v>53</v>
+      </c>
+      <c r="C367" t="s">
+        <v>513</v>
+      </c>
+      <c r="D367" t="s">
+        <v>534</v>
+      </c>
+      <c r="E367">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>5903</v>
+      </c>
+      <c r="B368">
+        <v>53</v>
+      </c>
+      <c r="C368" t="s">
+        <v>513</v>
+      </c>
+      <c r="D368" t="s">
+        <v>534</v>
+      </c>
+      <c r="E368">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>5904</v>
+      </c>
+      <c r="B369">
+        <v>53</v>
+      </c>
+      <c r="C369" t="s">
+        <v>513</v>
+      </c>
+      <c r="D369" t="s">
+        <v>534</v>
+      </c>
+      <c r="E369">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>5905</v>
+      </c>
+      <c r="B370">
+        <v>53</v>
+      </c>
+      <c r="C370" t="s">
+        <v>513</v>
+      </c>
+      <c r="D370" t="s">
+        <v>534</v>
+      </c>
+      <c r="E370">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>5906</v>
+      </c>
+      <c r="B371">
+        <v>53</v>
+      </c>
+      <c r="C371" t="s">
+        <v>513</v>
+      </c>
+      <c r="D371" t="s">
+        <v>534</v>
+      </c>
+      <c r="E371">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>5907</v>
+      </c>
+      <c r="B372">
+        <v>53</v>
+      </c>
+      <c r="C372" t="s">
+        <v>513</v>
+      </c>
+      <c r="D372" t="s">
+        <v>534</v>
+      </c>
+      <c r="E372">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>5908</v>
+      </c>
+      <c r="B373">
+        <v>53</v>
+      </c>
+      <c r="C373" t="s">
+        <v>513</v>
+      </c>
+      <c r="D373" t="s">
+        <v>534</v>
+      </c>
+      <c r="E373">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>5909</v>
+      </c>
+      <c r="B374">
+        <v>53</v>
+      </c>
+      <c r="C374" t="s">
+        <v>513</v>
+      </c>
+      <c r="D374" t="s">
+        <v>534</v>
+      </c>
+      <c r="E374">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>5910</v>
+      </c>
+      <c r="B375">
+        <v>53</v>
+      </c>
+      <c r="C375" t="s">
+        <v>513</v>
+      </c>
+      <c r="D375" t="s">
+        <v>534</v>
+      </c>
+      <c r="E375">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>5911</v>
+      </c>
+      <c r="B376">
+        <v>53</v>
+      </c>
+      <c r="C376" t="s">
+        <v>513</v>
+      </c>
+      <c r="D376" t="s">
+        <v>534</v>
+      </c>
+      <c r="E376">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>5912</v>
+      </c>
+      <c r="B377">
+        <v>53</v>
+      </c>
+      <c r="C377" t="s">
+        <v>513</v>
+      </c>
+      <c r="D377" t="s">
+        <v>534</v>
+      </c>
+      <c r="E377">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>5913</v>
+      </c>
+      <c r="B378">
+        <v>53</v>
+      </c>
+      <c r="C378" t="s">
+        <v>513</v>
+      </c>
+      <c r="D378" t="s">
+        <v>534</v>
+      </c>
+      <c r="E378">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>5914</v>
+      </c>
+      <c r="B379">
+        <v>53</v>
+      </c>
+      <c r="C379" t="s">
+        <v>513</v>
+      </c>
+      <c r="D379" t="s">
+        <v>534</v>
+      </c>
+      <c r="E379">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>5915</v>
+      </c>
+      <c r="B380">
+        <v>53</v>
+      </c>
+      <c r="C380" t="s">
+        <v>513</v>
+      </c>
+      <c r="D380" t="s">
+        <v>534</v>
+      </c>
+      <c r="E380">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>5916</v>
+      </c>
+      <c r="B381">
+        <v>53</v>
+      </c>
+      <c r="C381" t="s">
+        <v>513</v>
+      </c>
+      <c r="D381" t="s">
+        <v>534</v>
+      </c>
+      <c r="E381">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>5917</v>
+      </c>
+      <c r="B382">
+        <v>53</v>
+      </c>
+      <c r="C382" t="s">
+        <v>513</v>
+      </c>
+      <c r="D382" t="s">
+        <v>534</v>
+      </c>
+      <c r="E382">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>5920</v>
+      </c>
+      <c r="B383">
+        <v>53</v>
+      </c>
+      <c r="C383" t="s">
+        <v>513</v>
+      </c>
+      <c r="D383" t="s">
+        <v>534</v>
+      </c>
+      <c r="E383">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>5923</v>
+      </c>
+      <c r="B384">
+        <v>53</v>
+      </c>
+      <c r="C384" t="s">
+        <v>513</v>
+      </c>
+      <c r="D384" t="s">
+        <v>534</v>
+      </c>
+      <c r="E384">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>5924</v>
+      </c>
+      <c r="B385">
+        <v>53</v>
+      </c>
+      <c r="C385" t="s">
+        <v>513</v>
+      </c>
+      <c r="D385" t="s">
+        <v>534</v>
+      </c>
+      <c r="E385">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>5925</v>
+      </c>
+      <c r="B386">
+        <v>53</v>
+      </c>
+      <c r="C386" t="s">
+        <v>513</v>
+      </c>
+      <c r="D386" t="s">
+        <v>534</v>
+      </c>
+      <c r="E386">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>5934</v>
+      </c>
+      <c r="B387">
+        <v>53</v>
+      </c>
+      <c r="C387" t="s">
+        <v>513</v>
+      </c>
+      <c r="D387" t="s">
+        <v>534</v>
+      </c>
+      <c r="E387">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>5922</v>
+      </c>
+      <c r="B388">
+        <v>54</v>
+      </c>
+      <c r="C388" t="s">
+        <v>514</v>
+      </c>
+      <c r="D388" t="s">
+        <v>534</v>
+      </c>
+      <c r="E388">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>5926</v>
+      </c>
+      <c r="B389">
+        <v>54</v>
+      </c>
+      <c r="C389" t="s">
+        <v>514</v>
+      </c>
+      <c r="D389" t="s">
+        <v>534</v>
+      </c>
+      <c r="E389">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>5927</v>
+      </c>
+      <c r="B390">
+        <v>54</v>
+      </c>
+      <c r="C390" t="s">
+        <v>514</v>
+      </c>
+      <c r="D390" t="s">
+        <v>534</v>
+      </c>
+      <c r="E390">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>5928</v>
+      </c>
+      <c r="B391">
+        <v>54</v>
+      </c>
+      <c r="C391" t="s">
+        <v>514</v>
+      </c>
+      <c r="D391" t="s">
+        <v>534</v>
+      </c>
+      <c r="E391">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>5929</v>
+      </c>
+      <c r="B392">
+        <v>54</v>
+      </c>
+      <c r="C392" t="s">
+        <v>514</v>
+      </c>
+      <c r="D392" t="s">
+        <v>534</v>
+      </c>
+      <c r="E392">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>5931</v>
+      </c>
+      <c r="B393">
+        <v>54</v>
+      </c>
+      <c r="C393" t="s">
+        <v>514</v>
+      </c>
+      <c r="D393" t="s">
+        <v>534</v>
+      </c>
+      <c r="E393">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>5933</v>
+      </c>
+      <c r="B394">
+        <v>54</v>
+      </c>
+      <c r="C394" t="s">
+        <v>514</v>
+      </c>
+      <c r="D394" t="s">
+        <v>534</v>
+      </c>
+      <c r="E394">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>5949</v>
+      </c>
+      <c r="B395">
+        <v>54</v>
+      </c>
+      <c r="C395" t="s">
+        <v>514</v>
+      </c>
+      <c r="D395" t="s">
+        <v>534</v>
+      </c>
+      <c r="E395">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>6101</v>
+      </c>
+      <c r="B396">
+        <v>55</v>
+      </c>
+      <c r="C396" t="s">
+        <v>456</v>
+      </c>
+      <c r="D396" t="s">
+        <v>535</v>
+      </c>
+      <c r="E396">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>6102</v>
+      </c>
+      <c r="B397">
+        <v>55</v>
+      </c>
+      <c r="C397" t="s">
+        <v>456</v>
+      </c>
+      <c r="D397" t="s">
+        <v>535</v>
+      </c>
+      <c r="E397">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>6103</v>
+      </c>
+      <c r="B398">
+        <v>55</v>
+      </c>
+      <c r="C398" t="s">
+        <v>456</v>
+      </c>
+      <c r="D398" t="s">
+        <v>535</v>
+      </c>
+      <c r="E398">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>6104</v>
+      </c>
+      <c r="B399">
+        <v>55</v>
+      </c>
+      <c r="C399" t="s">
+        <v>456</v>
+      </c>
+      <c r="D399" t="s">
+        <v>535</v>
+      </c>
+      <c r="E399">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>6105</v>
+      </c>
+      <c r="B400">
+        <v>55</v>
+      </c>
+      <c r="C400" t="s">
+        <v>456</v>
+      </c>
+      <c r="D400" t="s">
+        <v>535</v>
+      </c>
+      <c r="E400">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>6106</v>
+      </c>
+      <c r="B401">
+        <v>55</v>
+      </c>
+      <c r="C401" t="s">
+        <v>456</v>
+      </c>
+      <c r="D401" t="s">
+        <v>535</v>
+      </c>
+      <c r="E401">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>6107</v>
+      </c>
+      <c r="B402">
+        <v>55</v>
+      </c>
+      <c r="C402" t="s">
+        <v>456</v>
+      </c>
+      <c r="D402" t="s">
+        <v>535</v>
+      </c>
+      <c r="E402">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>6108</v>
+      </c>
+      <c r="B403">
+        <v>55</v>
+      </c>
+      <c r="C403" t="s">
+        <v>456</v>
+      </c>
+      <c r="D403" t="s">
+        <v>535</v>
+      </c>
+      <c r="E403">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>6109</v>
+      </c>
+      <c r="B404">
+        <v>55</v>
+      </c>
+      <c r="C404" t="s">
+        <v>456</v>
+      </c>
+      <c r="D404" t="s">
+        <v>535</v>
+      </c>
+      <c r="E404">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>6110</v>
+      </c>
+      <c r="B405">
+        <v>55</v>
+      </c>
+      <c r="C405" t="s">
+        <v>456</v>
+      </c>
+      <c r="D405" t="s">
+        <v>535</v>
+      </c>
+      <c r="E405">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>6111</v>
+      </c>
+      <c r="B406">
+        <v>55</v>
+      </c>
+      <c r="C406" t="s">
+        <v>456</v>
+      </c>
+      <c r="D406" t="s">
+        <v>535</v>
+      </c>
+      <c r="E406">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>6112</v>
+      </c>
+      <c r="B407">
+        <v>55</v>
+      </c>
+      <c r="C407" t="s">
+        <v>456</v>
+      </c>
+      <c r="D407" t="s">
+        <v>535</v>
+      </c>
+      <c r="E407">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>6113</v>
+      </c>
+      <c r="B408">
+        <v>55</v>
+      </c>
+      <c r="C408" t="s">
+        <v>456</v>
+      </c>
+      <c r="D408" t="s">
+        <v>535</v>
+      </c>
+      <c r="E408">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>6114</v>
+      </c>
+      <c r="B409">
+        <v>55</v>
+      </c>
+      <c r="C409" t="s">
+        <v>456</v>
+      </c>
+      <c r="D409" t="s">
+        <v>535</v>
+      </c>
+      <c r="E409">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>6115</v>
+      </c>
+      <c r="B410">
+        <v>55</v>
+      </c>
+      <c r="C410" t="s">
+        <v>456</v>
+      </c>
+      <c r="D410" t="s">
+        <v>535</v>
+      </c>
+      <c r="E410">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>6116</v>
+      </c>
+      <c r="B411">
+        <v>55</v>
+      </c>
+      <c r="C411" t="s">
+        <v>456</v>
+      </c>
+      <c r="D411" t="s">
+        <v>535</v>
+      </c>
+      <c r="E411">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>6117</v>
+      </c>
+      <c r="B412">
+        <v>55</v>
+      </c>
+      <c r="C412" t="s">
+        <v>456</v>
+      </c>
+      <c r="D412" t="s">
+        <v>535</v>
+      </c>
+      <c r="E412">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>6118</v>
+      </c>
+      <c r="B413">
+        <v>55</v>
+      </c>
+      <c r="C413" t="s">
+        <v>456</v>
+      </c>
+      <c r="D413" t="s">
+        <v>535</v>
+      </c>
+      <c r="E413">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>6119</v>
+      </c>
+      <c r="B414">
+        <v>55</v>
+      </c>
+      <c r="C414" t="s">
+        <v>456</v>
+      </c>
+      <c r="D414" t="s">
+        <v>535</v>
+      </c>
+      <c r="E414">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>6120</v>
+      </c>
+      <c r="B415">
+        <v>55</v>
+      </c>
+      <c r="C415" t="s">
+        <v>456</v>
+      </c>
+      <c r="D415" t="s">
+        <v>535</v>
+      </c>
+      <c r="E415">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>6122</v>
+      </c>
+      <c r="B416">
+        <v>55</v>
+      </c>
+      <c r="C416" t="s">
+        <v>456</v>
+      </c>
+      <c r="D416" t="s">
+        <v>535</v>
+      </c>
+      <c r="E416">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>6123</v>
+      </c>
+      <c r="B417">
+        <v>55</v>
+      </c>
+      <c r="C417" t="s">
+        <v>456</v>
+      </c>
+      <c r="D417" t="s">
+        <v>535</v>
+      </c>
+      <c r="E417">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>6124</v>
+      </c>
+      <c r="B418">
+        <v>55</v>
+      </c>
+      <c r="C418" t="s">
+        <v>456</v>
+      </c>
+      <c r="D418" t="s">
+        <v>535</v>
+      </c>
+      <c r="E418">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>6125</v>
+      </c>
+      <c r="B419">
+        <v>55</v>
+      </c>
+      <c r="C419" t="s">
+        <v>456</v>
+      </c>
+      <c r="D419" t="s">
+        <v>535</v>
+      </c>
+      <c r="E419">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>6401</v>
+      </c>
+      <c r="B420">
+        <v>55</v>
+      </c>
+      <c r="C420" t="s">
+        <v>456</v>
+      </c>
+      <c r="D420" t="s">
+        <v>535</v>
+      </c>
+      <c r="E420">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <v>6402</v>
+      </c>
+      <c r="B421">
+        <v>55</v>
+      </c>
+      <c r="C421" t="s">
+        <v>456</v>
+      </c>
+      <c r="D421" t="s">
+        <v>535</v>
+      </c>
+      <c r="E421">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <v>6403</v>
+      </c>
+      <c r="B422">
+        <v>55</v>
+      </c>
+      <c r="C422" t="s">
+        <v>456</v>
+      </c>
+      <c r="D422" t="s">
+        <v>535</v>
+      </c>
+      <c r="E422">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <v>6404</v>
+      </c>
+      <c r="B423">
+        <v>55</v>
+      </c>
+      <c r="C423" t="s">
+        <v>456</v>
+      </c>
+      <c r="D423" t="s">
+        <v>535</v>
+      </c>
+      <c r="E423">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <v>6651</v>
+      </c>
+      <c r="B424">
+        <v>55</v>
+      </c>
+      <c r="C424" t="s">
+        <v>456</v>
+      </c>
+      <c r="D424" t="s">
+        <v>535</v>
+      </c>
+      <c r="E424">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <v>6652</v>
+      </c>
+      <c r="B425">
+        <v>55</v>
+      </c>
+      <c r="C425" t="s">
+        <v>456</v>
+      </c>
+      <c r="D425" t="s">
+        <v>535</v>
+      </c>
+      <c r="E425">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <v>6654</v>
+      </c>
+      <c r="B426">
+        <v>55</v>
+      </c>
+      <c r="C426" t="s">
+        <v>456</v>
+      </c>
+      <c r="D426" t="s">
+        <v>535</v>
+      </c>
+      <c r="E426">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <v>6655</v>
+      </c>
+      <c r="B427">
+        <v>55</v>
+      </c>
+      <c r="C427" t="s">
+        <v>456</v>
+      </c>
+      <c r="D427" t="s">
+        <v>535</v>
+      </c>
+      <c r="E427">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A428">
+        <v>6656</v>
+      </c>
+      <c r="B428">
+        <v>55</v>
+      </c>
+      <c r="C428" t="s">
+        <v>456</v>
+      </c>
+      <c r="D428" t="s">
+        <v>535</v>
+      </c>
+      <c r="E428">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A429">
+        <v>6151</v>
+      </c>
+      <c r="B429">
+        <v>56</v>
+      </c>
+      <c r="C429" t="s">
+        <v>511</v>
+      </c>
+      <c r="D429" t="s">
+        <v>535</v>
+      </c>
+      <c r="E429">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A430">
+        <v>6152</v>
+      </c>
+      <c r="B430">
+        <v>56</v>
+      </c>
+      <c r="C430" t="s">
+        <v>511</v>
+      </c>
+      <c r="D430" t="s">
+        <v>535</v>
+      </c>
+      <c r="E430">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <v>6153</v>
+      </c>
+      <c r="B431">
+        <v>56</v>
+      </c>
+      <c r="C431" t="s">
+        <v>511</v>
+      </c>
+      <c r="D431" t="s">
+        <v>535</v>
+      </c>
+      <c r="E431">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <v>6155</v>
+      </c>
+      <c r="B432">
+        <v>56</v>
+      </c>
+      <c r="C432" t="s">
+        <v>511</v>
+      </c>
+      <c r="D432" t="s">
+        <v>535</v>
+      </c>
+      <c r="E432">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <v>6156</v>
+      </c>
+      <c r="B433">
+        <v>56</v>
+      </c>
+      <c r="C433" t="s">
+        <v>511</v>
+      </c>
+      <c r="D433" t="s">
+        <v>535</v>
+      </c>
+      <c r="E433">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A434">
+        <v>6408</v>
+      </c>
+      <c r="B434">
+        <v>56</v>
+      </c>
+      <c r="C434" t="s">
+        <v>511</v>
+      </c>
+      <c r="D434" t="s">
+        <v>535</v>
+      </c>
+      <c r="E434">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A435">
+        <v>6409</v>
+      </c>
+      <c r="B435">
+        <v>56</v>
+      </c>
+      <c r="C435" t="s">
+        <v>511</v>
+      </c>
+      <c r="D435" t="s">
+        <v>535</v>
+      </c>
+      <c r="E435">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A436">
+        <v>6552</v>
+      </c>
+      <c r="B436">
+        <v>56</v>
+      </c>
+      <c r="C436" t="s">
+        <v>511</v>
+      </c>
+      <c r="D436" t="s">
+        <v>535</v>
+      </c>
+      <c r="E436">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A437">
+        <v>6557</v>
+      </c>
+      <c r="B437">
+        <v>56</v>
+      </c>
+      <c r="C437" t="s">
+        <v>511</v>
+      </c>
+      <c r="D437" t="s">
+        <v>535</v>
+      </c>
+      <c r="E437">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A438">
+        <v>6658</v>
+      </c>
+      <c r="B438">
+        <v>56</v>
+      </c>
+      <c r="C438" t="s">
+        <v>511</v>
+      </c>
+      <c r="D438" t="s">
+        <v>535</v>
+      </c>
+      <c r="E438">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A439">
+        <v>6659</v>
+      </c>
+      <c r="B439">
+        <v>56</v>
+      </c>
+      <c r="C439" t="s">
+        <v>511</v>
+      </c>
+      <c r="D439" t="s">
+        <v>535</v>
+      </c>
+      <c r="E439">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <v>6201</v>
+      </c>
+      <c r="B440">
+        <v>57</v>
+      </c>
+      <c r="C440" t="s">
+        <v>383</v>
+      </c>
+      <c r="D440" t="s">
+        <v>535</v>
+      </c>
+      <c r="E440">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <v>6202</v>
+      </c>
+      <c r="B441">
+        <v>57</v>
+      </c>
+      <c r="C441" t="s">
+        <v>383</v>
+      </c>
+      <c r="D441" t="s">
+        <v>535</v>
+      </c>
+      <c r="E441">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <v>6205</v>
+      </c>
+      <c r="B442">
+        <v>57</v>
+      </c>
+      <c r="C442" t="s">
+        <v>383</v>
+      </c>
+      <c r="D442" t="s">
+        <v>535</v>
+      </c>
+      <c r="E442">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <v>6206</v>
+      </c>
+      <c r="B443">
+        <v>57</v>
+      </c>
+      <c r="C443" t="s">
+        <v>383</v>
+      </c>
+      <c r="D443" t="s">
+        <v>535</v>
+      </c>
+      <c r="E443">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A444">
+        <v>6207</v>
+      </c>
+      <c r="B444">
+        <v>57</v>
+      </c>
+      <c r="C444" t="s">
+        <v>383</v>
+      </c>
+      <c r="D444" t="s">
+        <v>535</v>
+      </c>
+      <c r="E444">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <v>6208</v>
+      </c>
+      <c r="B445">
+        <v>57</v>
+      </c>
+      <c r="C445" t="s">
+        <v>383</v>
+      </c>
+      <c r="D445" t="s">
+        <v>535</v>
+      </c>
+      <c r="E445">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <v>6209</v>
+      </c>
+      <c r="B446">
+        <v>57</v>
+      </c>
+      <c r="C446" t="s">
+        <v>383</v>
+      </c>
+      <c r="D446" t="s">
+        <v>535</v>
+      </c>
+      <c r="E446">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <v>6210</v>
+      </c>
+      <c r="B447">
+        <v>57</v>
+      </c>
+      <c r="C447" t="s">
+        <v>383</v>
+      </c>
+      <c r="D447" t="s">
+        <v>535</v>
+      </c>
+      <c r="E447">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <v>6410</v>
+      </c>
+      <c r="B448">
+        <v>57</v>
+      </c>
+      <c r="C448" t="s">
+        <v>383</v>
+      </c>
+      <c r="D448" t="s">
+        <v>535</v>
+      </c>
+      <c r="E448">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <v>6411</v>
+      </c>
+      <c r="B449">
+        <v>57</v>
+      </c>
+      <c r="C449" t="s">
+        <v>383</v>
+      </c>
+      <c r="D449" t="s">
+        <v>535</v>
+      </c>
+      <c r="E449">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <v>6412</v>
+      </c>
+      <c r="B450">
+        <v>57</v>
+      </c>
+      <c r="C450" t="s">
+        <v>383</v>
+      </c>
+      <c r="D450" t="s">
+        <v>535</v>
+      </c>
+      <c r="E450">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A451">
+        <v>6413</v>
+      </c>
+      <c r="B451">
+        <v>57</v>
+      </c>
+      <c r="C451" t="s">
+        <v>383</v>
+      </c>
+      <c r="D451" t="s">
+        <v>535</v>
+      </c>
+      <c r="E451">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A452">
+        <v>6503</v>
+      </c>
+      <c r="B452">
+        <v>57</v>
+      </c>
+      <c r="C452" t="s">
+        <v>383</v>
+      </c>
+      <c r="D452" t="s">
+        <v>535</v>
+      </c>
+      <c r="E452">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A453">
+        <v>6553</v>
+      </c>
+      <c r="B453">
+        <v>57</v>
+      </c>
+      <c r="C453" t="s">
+        <v>383</v>
+      </c>
+      <c r="D453" t="s">
+        <v>535</v>
+      </c>
+      <c r="E453">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A454">
+        <v>6555</v>
+      </c>
+      <c r="B454">
+        <v>57</v>
+      </c>
+      <c r="C454" t="s">
+        <v>383</v>
+      </c>
+      <c r="D454" t="s">
+        <v>535</v>
+      </c>
+      <c r="E454">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A455">
+        <v>6556</v>
+      </c>
+      <c r="B455">
+        <v>57</v>
+      </c>
+      <c r="C455" t="s">
+        <v>383</v>
+      </c>
+      <c r="D455" t="s">
+        <v>535</v>
+      </c>
+      <c r="E455">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A456">
+        <v>6660</v>
+      </c>
+      <c r="B456">
+        <v>57</v>
+      </c>
+      <c r="C456" t="s">
+        <v>383</v>
+      </c>
+      <c r="D456" t="s">
+        <v>535</v>
+      </c>
+      <c r="E456">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A457">
+        <v>6661</v>
+      </c>
+      <c r="B457">
+        <v>57</v>
+      </c>
+      <c r="C457" t="s">
+        <v>383</v>
+      </c>
+      <c r="D457" t="s">
+        <v>535</v>
+      </c>
+      <c r="E457">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A458">
+        <v>6662</v>
+      </c>
+      <c r="B458">
+        <v>57</v>
+      </c>
+      <c r="C458" t="s">
+        <v>383</v>
+      </c>
+      <c r="D458" t="s">
+        <v>535</v>
+      </c>
+      <c r="E458">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A459">
+        <v>6918</v>
+      </c>
+      <c r="B459">
+        <v>57</v>
+      </c>
+      <c r="C459" t="s">
+        <v>383</v>
+      </c>
+      <c r="D459" t="s">
+        <v>535</v>
+      </c>
+      <c r="E459">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A460">
+        <v>6919</v>
+      </c>
+      <c r="B460">
+        <v>57</v>
+      </c>
+      <c r="C460" t="s">
+        <v>383</v>
+      </c>
+      <c r="D460" t="s">
+        <v>535</v>
+      </c>
+      <c r="E460">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A461">
+        <v>6921</v>
+      </c>
+      <c r="B461">
+        <v>57</v>
+      </c>
+      <c r="C461" t="s">
+        <v>383</v>
+      </c>
+      <c r="D461" t="s">
+        <v>535</v>
+      </c>
+      <c r="E461">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A462">
+        <v>6251</v>
+      </c>
+      <c r="B462">
+        <v>58</v>
+      </c>
+      <c r="C462" t="s">
+        <v>386</v>
+      </c>
+      <c r="D462" t="s">
+        <v>535</v>
+      </c>
+      <c r="E462">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A463">
+        <v>6252</v>
+      </c>
+      <c r="B463">
+        <v>58</v>
+      </c>
+      <c r="C463" t="s">
+        <v>386</v>
+      </c>
+      <c r="D463" t="s">
+        <v>535</v>
+      </c>
+      <c r="E463">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A464">
+        <v>6253</v>
+      </c>
+      <c r="B464">
+        <v>58</v>
+      </c>
+      <c r="C464" t="s">
+        <v>386</v>
+      </c>
+      <c r="D464" t="s">
+        <v>535</v>
+      </c>
+      <c r="E464">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A465">
+        <v>6254</v>
+      </c>
+      <c r="B465">
+        <v>58</v>
+      </c>
+      <c r="C465" t="s">
+        <v>386</v>
+      </c>
+      <c r="D465" t="s">
+        <v>535</v>
+      </c>
+      <c r="E465">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A466">
+        <v>6255</v>
+      </c>
+      <c r="B466">
+        <v>58</v>
+      </c>
+      <c r="C466" t="s">
+        <v>386</v>
+      </c>
+      <c r="D466" t="s">
+        <v>535</v>
+      </c>
+      <c r="E466">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A467">
+        <v>6256</v>
+      </c>
+      <c r="B467">
+        <v>58</v>
+      </c>
+      <c r="C467" t="s">
+        <v>386</v>
+      </c>
+      <c r="D467" t="s">
+        <v>535</v>
+      </c>
+      <c r="E467">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A468">
+        <v>6257</v>
+      </c>
+      <c r="B468">
+        <v>58</v>
+      </c>
+      <c r="C468" t="s">
+        <v>386</v>
+      </c>
+      <c r="D468" t="s">
+        <v>535</v>
+      </c>
+      <c r="E468">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A469">
+        <v>6258</v>
+      </c>
+      <c r="B469">
+        <v>58</v>
+      </c>
+      <c r="C469" t="s">
+        <v>386</v>
+      </c>
+      <c r="D469" t="s">
+        <v>535</v>
+      </c>
+      <c r="E469">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A470">
+        <v>6301</v>
+      </c>
+      <c r="B470">
+        <v>59</v>
+      </c>
+      <c r="C470" t="s">
+        <v>389</v>
+      </c>
+      <c r="D470" t="s">
+        <v>535</v>
+      </c>
+      <c r="E470">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A471">
+        <v>6302</v>
+      </c>
+      <c r="B471">
+        <v>59</v>
+      </c>
+      <c r="C471" t="s">
+        <v>389</v>
+      </c>
+      <c r="D471" t="s">
+        <v>535</v>
+      </c>
+      <c r="E471">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A472">
+        <v>6303</v>
+      </c>
+      <c r="B472">
+        <v>59</v>
+      </c>
+      <c r="C472" t="s">
+        <v>389</v>
+      </c>
+      <c r="D472" t="s">
+        <v>535</v>
+      </c>
+      <c r="E472">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A473">
+        <v>6304</v>
+      </c>
+      <c r="B473">
+        <v>59</v>
+      </c>
+      <c r="C473" t="s">
+        <v>389</v>
+      </c>
+      <c r="D473" t="s">
+        <v>535</v>
+      </c>
+      <c r="E473">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A474">
+        <v>6305</v>
+      </c>
+      <c r="B474">
+        <v>59</v>
+      </c>
+      <c r="C474" t="s">
+        <v>389</v>
+      </c>
+      <c r="D474" t="s">
+        <v>535</v>
+      </c>
+      <c r="E474">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A475">
+        <v>6306</v>
+      </c>
+      <c r="B475">
+        <v>59</v>
+      </c>
+      <c r="C475" t="s">
+        <v>389</v>
+      </c>
+      <c r="D475" t="s">
+        <v>535</v>
+      </c>
+      <c r="E475">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A476">
+        <v>6307</v>
+      </c>
+      <c r="B476">
+        <v>59</v>
+      </c>
+      <c r="C476" t="s">
+        <v>389</v>
+      </c>
+      <c r="D476" t="s">
+        <v>535</v>
+      </c>
+      <c r="E476">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A477">
+        <v>6351</v>
+      </c>
+      <c r="B477">
+        <v>60</v>
+      </c>
+      <c r="C477" t="s">
+        <v>392</v>
+      </c>
+      <c r="D477" t="s">
+        <v>535</v>
+      </c>
+      <c r="E477">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A478">
+        <v>6352</v>
+      </c>
+      <c r="B478">
+        <v>60</v>
+      </c>
+      <c r="C478" t="s">
+        <v>392</v>
+      </c>
+      <c r="D478" t="s">
+        <v>535</v>
+      </c>
+      <c r="E478">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A479">
+        <v>6353</v>
+      </c>
+      <c r="B479">
+        <v>60</v>
+      </c>
+      <c r="C479" t="s">
+        <v>392</v>
+      </c>
+      <c r="D479" t="s">
+        <v>535</v>
+      </c>
+      <c r="E479">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A480">
+        <v>6354</v>
+      </c>
+      <c r="B480">
+        <v>60</v>
+      </c>
+      <c r="C480" t="s">
+        <v>392</v>
+      </c>
+      <c r="D480" t="s">
+        <v>535</v>
+      </c>
+      <c r="E480">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A481">
+        <v>6355</v>
+      </c>
+      <c r="B481">
+        <v>60</v>
+      </c>
+      <c r="C481" t="s">
+        <v>392</v>
+      </c>
+      <c r="D481" t="s">
+        <v>535</v>
+      </c>
+      <c r="E481">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A482">
+        <v>6356</v>
+      </c>
+      <c r="B482">
+        <v>60</v>
+      </c>
+      <c r="C482" t="s">
+        <v>392</v>
+      </c>
+      <c r="D482" t="s">
+        <v>535</v>
+      </c>
+      <c r="E482">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A483">
+        <v>6357</v>
+      </c>
+      <c r="B483">
+        <v>60</v>
+      </c>
+      <c r="C483" t="s">
+        <v>392</v>
+      </c>
+      <c r="D483" t="s">
+        <v>535</v>
+      </c>
+      <c r="E483">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A484">
+        <v>6359</v>
+      </c>
+      <c r="B484">
+        <v>60</v>
+      </c>
+      <c r="C484" t="s">
+        <v>392</v>
+      </c>
+      <c r="D484" t="s">
+        <v>535</v>
+      </c>
+      <c r="E484">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A485">
+        <v>6360</v>
+      </c>
+      <c r="B485">
+        <v>60</v>
+      </c>
+      <c r="C485" t="s">
+        <v>392</v>
+      </c>
+      <c r="D485" t="s">
+        <v>535</v>
+      </c>
+      <c r="E485">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A486">
+        <v>6932</v>
+      </c>
+      <c r="B486">
+        <v>60</v>
+      </c>
+      <c r="C486" t="s">
+        <v>392</v>
+      </c>
+      <c r="D486" t="s">
+        <v>535</v>
+      </c>
+      <c r="E486">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A487">
+        <v>6551</v>
+      </c>
+      <c r="B487">
+        <v>61</v>
+      </c>
+      <c r="C487" t="s">
+        <v>395</v>
+      </c>
+      <c r="D487" t="s">
+        <v>535</v>
+      </c>
+      <c r="E487">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A488">
+        <v>6653</v>
+      </c>
+      <c r="B488">
+        <v>62</v>
+      </c>
+      <c r="C488" t="s">
+        <v>399</v>
+      </c>
+      <c r="D488" t="s">
+        <v>535</v>
+      </c>
+      <c r="E488">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A489">
+        <v>6667</v>
+      </c>
+      <c r="B489">
+        <v>62</v>
+      </c>
+      <c r="C489" t="s">
+        <v>399</v>
+      </c>
+      <c r="D489" t="s">
+        <v>535</v>
+      </c>
+      <c r="E489">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A490">
+        <v>6603</v>
+      </c>
+      <c r="B490">
+        <v>63</v>
+      </c>
+      <c r="C490" t="s">
+        <v>512</v>
+      </c>
+      <c r="D490" t="s">
+        <v>535</v>
+      </c>
+      <c r="E490">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A491">
+        <v>6414</v>
+      </c>
+      <c r="B491">
+        <v>64</v>
+      </c>
+      <c r="C491" t="s">
+        <v>513</v>
+      </c>
+      <c r="D491" t="s">
+        <v>535</v>
+      </c>
+      <c r="E491">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A492">
+        <v>6415</v>
+      </c>
+      <c r="B492">
+        <v>64</v>
+      </c>
+      <c r="C492" t="s">
+        <v>513</v>
+      </c>
+      <c r="D492" t="s">
+        <v>535</v>
+      </c>
+      <c r="E492">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A493">
+        <v>6501</v>
+      </c>
+      <c r="B493">
+        <v>64</v>
+      </c>
+      <c r="C493" t="s">
+        <v>513</v>
+      </c>
+      <c r="D493" t="s">
+        <v>535</v>
+      </c>
+      <c r="E493">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A494">
+        <v>6502</v>
+      </c>
+      <c r="B494">
+        <v>64</v>
+      </c>
+      <c r="C494" t="s">
+        <v>513</v>
+      </c>
+      <c r="D494" t="s">
+        <v>535</v>
+      </c>
+      <c r="E494">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A495">
+        <v>6504</v>
+      </c>
+      <c r="B495">
+        <v>64</v>
+      </c>
+      <c r="C495" t="s">
+        <v>513</v>
+      </c>
+      <c r="D495" t="s">
+        <v>535</v>
+      </c>
+      <c r="E495">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A496">
+        <v>6505</v>
+      </c>
+      <c r="B496">
+        <v>64</v>
+      </c>
+      <c r="C496" t="s">
+        <v>513</v>
+      </c>
+      <c r="D496" t="s">
+        <v>535</v>
+      </c>
+      <c r="E496">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A497">
+        <v>6554</v>
+      </c>
+      <c r="B497">
+        <v>64</v>
+      </c>
+      <c r="C497" t="s">
+        <v>513</v>
+      </c>
+      <c r="D497" t="s">
+        <v>535</v>
+      </c>
+      <c r="E497">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A498">
+        <v>6657</v>
+      </c>
+      <c r="B498">
+        <v>64</v>
+      </c>
+      <c r="C498" t="s">
+        <v>513</v>
+      </c>
+      <c r="D498" t="s">
+        <v>535</v>
+      </c>
+      <c r="E498">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A499">
+        <v>6663</v>
+      </c>
+      <c r="B499">
+        <v>64</v>
+      </c>
+      <c r="C499" t="s">
+        <v>513</v>
+      </c>
+      <c r="D499" t="s">
+        <v>535</v>
+      </c>
+      <c r="E499">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A500">
+        <v>6664</v>
+      </c>
+      <c r="B500">
+        <v>64</v>
+      </c>
+      <c r="C500" t="s">
+        <v>513</v>
+      </c>
+      <c r="D500" t="s">
+        <v>535</v>
+      </c>
+      <c r="E500">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A501">
+        <v>6665</v>
+      </c>
+      <c r="B501">
+        <v>64</v>
+      </c>
+      <c r="C501" t="s">
+        <v>513</v>
+      </c>
+      <c r="D501" t="s">
+        <v>535</v>
+      </c>
+      <c r="E501">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A502">
+        <v>6666</v>
+      </c>
+      <c r="B502">
+        <v>64</v>
+      </c>
+      <c r="C502" t="s">
+        <v>513</v>
+      </c>
+      <c r="D502" t="s">
+        <v>535</v>
+      </c>
+      <c r="E502">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A503">
+        <v>6901</v>
+      </c>
+      <c r="B503">
+        <v>64</v>
+      </c>
+      <c r="C503" t="s">
+        <v>513</v>
+      </c>
+      <c r="D503" t="s">
+        <v>535</v>
+      </c>
+      <c r="E503">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A504">
+        <v>6902</v>
+      </c>
+      <c r="B504">
+        <v>64</v>
+      </c>
+      <c r="C504" t="s">
+        <v>513</v>
+      </c>
+      <c r="D504" t="s">
+        <v>535</v>
+      </c>
+      <c r="E504">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A505">
+        <v>6903</v>
+      </c>
+      <c r="B505">
+        <v>64</v>
+      </c>
+      <c r="C505" t="s">
+        <v>513</v>
+      </c>
+      <c r="D505" t="s">
+        <v>535</v>
+      </c>
+      <c r="E505">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A506">
+        <v>6904</v>
+      </c>
+      <c r="B506">
+        <v>64</v>
+      </c>
+      <c r="C506" t="s">
+        <v>513</v>
+      </c>
+      <c r="D506" t="s">
+        <v>535</v>
+      </c>
+      <c r="E506">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A507">
+        <v>6905</v>
+      </c>
+      <c r="B507">
+        <v>64</v>
+      </c>
+      <c r="C507" t="s">
+        <v>513</v>
+      </c>
+      <c r="D507" t="s">
+        <v>535</v>
+      </c>
+      <c r="E507">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A508">
+        <v>6906</v>
+      </c>
+      <c r="B508">
+        <v>64</v>
+      </c>
+      <c r="C508" t="s">
+        <v>513</v>
+      </c>
+      <c r="D508" t="s">
+        <v>535</v>
+      </c>
+      <c r="E508">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A509">
+        <v>6907</v>
+      </c>
+      <c r="B509">
+        <v>64</v>
+      </c>
+      <c r="C509" t="s">
+        <v>513</v>
+      </c>
+      <c r="D509" t="s">
+        <v>535</v>
+      </c>
+      <c r="E509">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A510">
+        <v>6908</v>
+      </c>
+      <c r="B510">
+        <v>64</v>
+      </c>
+      <c r="C510" t="s">
+        <v>513</v>
+      </c>
+      <c r="D510" t="s">
+        <v>535</v>
+      </c>
+      <c r="E510">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A511">
+        <v>6909</v>
+      </c>
+      <c r="B511">
+        <v>64</v>
+      </c>
+      <c r="C511" t="s">
+        <v>513</v>
+      </c>
+      <c r="D511" t="s">
+        <v>535</v>
+      </c>
+      <c r="E511">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A512">
+        <v>6910</v>
+      </c>
+      <c r="B512">
+        <v>64</v>
+      </c>
+      <c r="C512" t="s">
+        <v>513</v>
+      </c>
+      <c r="D512" t="s">
+        <v>535</v>
+      </c>
+      <c r="E512">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A513">
+        <v>6911</v>
+      </c>
+      <c r="B513">
+        <v>64</v>
+      </c>
+      <c r="C513" t="s">
+        <v>513</v>
+      </c>
+      <c r="D513" t="s">
+        <v>535</v>
+      </c>
+      <c r="E513">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A514">
+        <v>6912</v>
+      </c>
+      <c r="B514">
+        <v>64</v>
+      </c>
+      <c r="C514" t="s">
+        <v>513</v>
+      </c>
+      <c r="D514" t="s">
+        <v>535</v>
+      </c>
+      <c r="E514">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A515">
+        <v>6913</v>
+      </c>
+      <c r="B515">
+        <v>64</v>
+      </c>
+      <c r="C515" t="s">
+        <v>513</v>
+      </c>
+      <c r="D515" t="s">
+        <v>535</v>
+      </c>
+      <c r="E515">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A516">
+        <v>6914</v>
+      </c>
+      <c r="B516">
+        <v>64</v>
+      </c>
+      <c r="C516" t="s">
+        <v>513</v>
+      </c>
+      <c r="D516" t="s">
+        <v>535</v>
+      </c>
+      <c r="E516">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A517">
+        <v>6915</v>
+      </c>
+      <c r="B517">
+        <v>64</v>
+      </c>
+      <c r="C517" t="s">
+        <v>513</v>
+      </c>
+      <c r="D517" t="s">
+        <v>535</v>
+      </c>
+      <c r="E517">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A518">
+        <v>6916</v>
+      </c>
+      <c r="B518">
+        <v>64</v>
+      </c>
+      <c r="C518" t="s">
+        <v>513</v>
+      </c>
+      <c r="D518" t="s">
+        <v>535</v>
+      </c>
+      <c r="E518">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A519">
+        <v>6917</v>
+      </c>
+      <c r="B519">
+        <v>64</v>
+      </c>
+      <c r="C519" t="s">
+        <v>513</v>
+      </c>
+      <c r="D519" t="s">
+        <v>535</v>
+      </c>
+      <c r="E519">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A520">
+        <v>6920</v>
+      </c>
+      <c r="B520">
+        <v>64</v>
+      </c>
+      <c r="C520" t="s">
+        <v>513</v>
+      </c>
+      <c r="D520" t="s">
+        <v>535</v>
+      </c>
+      <c r="E520">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A521">
+        <v>6923</v>
+      </c>
+      <c r="B521">
+        <v>64</v>
+      </c>
+      <c r="C521" t="s">
+        <v>513</v>
+      </c>
+      <c r="D521" t="s">
+        <v>535</v>
+      </c>
+      <c r="E521">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A522">
+        <v>6924</v>
+      </c>
+      <c r="B522">
+        <v>64</v>
+      </c>
+      <c r="C522" t="s">
+        <v>513</v>
+      </c>
+      <c r="D522" t="s">
+        <v>535</v>
+      </c>
+      <c r="E522">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A523">
+        <v>6925</v>
+      </c>
+      <c r="B523">
+        <v>64</v>
+      </c>
+      <c r="C523" t="s">
+        <v>513</v>
+      </c>
+      <c r="D523" t="s">
+        <v>535</v>
+      </c>
+      <c r="E523">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A524">
+        <v>6934</v>
+      </c>
+      <c r="B524">
+        <v>64</v>
+      </c>
+      <c r="C524" t="s">
+        <v>513</v>
+      </c>
+      <c r="D524" t="s">
+        <v>535</v>
+      </c>
+      <c r="E524">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A525">
+        <v>6922</v>
+      </c>
+      <c r="B525">
+        <v>65</v>
+      </c>
+      <c r="C525" t="s">
+        <v>514</v>
+      </c>
+      <c r="D525" t="s">
+        <v>535</v>
+      </c>
+      <c r="E525">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A526">
+        <v>6929</v>
+      </c>
+      <c r="B526">
+        <v>65</v>
+      </c>
+      <c r="C526" t="s">
+        <v>514</v>
+      </c>
+      <c r="D526" t="s">
+        <v>535</v>
+      </c>
+      <c r="E526">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A527">
+        <v>6931</v>
+      </c>
+      <c r="B527">
+        <v>65</v>
+      </c>
+      <c r="C527" t="s">
+        <v>514</v>
+      </c>
+      <c r="D527" t="s">
+        <v>535</v>
+      </c>
+      <c r="E527">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A528">
+        <v>6933</v>
+      </c>
+      <c r="B528">
+        <v>65</v>
+      </c>
+      <c r="C528" t="s">
+        <v>514</v>
+      </c>
+      <c r="D528" t="s">
+        <v>535</v>
+      </c>
+      <c r="E528">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A529">
+        <v>6949</v>
+      </c>
+      <c r="B529">
+        <v>65</v>
+      </c>
+      <c r="C529" t="s">
+        <v>514</v>
+      </c>
+      <c r="D529" t="s">
+        <v>535</v>
+      </c>
+      <c r="E529">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A530">
+        <v>7101</v>
+      </c>
+      <c r="B530">
+        <v>66</v>
+      </c>
+      <c r="C530" t="s">
+        <v>456</v>
+      </c>
+      <c r="D530" t="s">
+        <v>536</v>
+      </c>
+      <c r="E530">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A531">
+        <v>7102</v>
+      </c>
+      <c r="B531">
+        <v>66</v>
+      </c>
+      <c r="C531" t="s">
+        <v>456</v>
+      </c>
+      <c r="D531" t="s">
+        <v>536</v>
+      </c>
+      <c r="E531">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A532">
+        <v>7105</v>
+      </c>
+      <c r="B532">
+        <v>66</v>
+      </c>
+      <c r="C532" t="s">
+        <v>456</v>
+      </c>
+      <c r="D532" t="s">
+        <v>536</v>
+      </c>
+      <c r="E532">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A533">
+        <v>7106</v>
+      </c>
+      <c r="B533">
+        <v>66</v>
+      </c>
+      <c r="C533" t="s">
+        <v>456</v>
+      </c>
+      <c r="D533" t="s">
+        <v>536</v>
+      </c>
+      <c r="E533">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A534">
+        <v>7127</v>
+      </c>
+      <c r="B534">
+        <v>66</v>
+      </c>
+      <c r="C534" t="s">
+        <v>456</v>
+      </c>
+      <c r="D534" t="s">
+        <v>536</v>
+      </c>
+      <c r="E534">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A535">
+        <v>7501</v>
+      </c>
+      <c r="B535">
+        <v>66</v>
+      </c>
+      <c r="C535" t="s">
+        <v>456</v>
+      </c>
+      <c r="D535" t="s">
+        <v>536</v>
+      </c>
+      <c r="E535">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A536">
+        <v>7651</v>
+      </c>
+      <c r="B536">
+        <v>66</v>
+      </c>
+      <c r="C536" t="s">
+        <v>456</v>
+      </c>
+      <c r="D536" t="s">
+        <v>536</v>
+      </c>
+      <c r="E536">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A537">
+        <v>7654</v>
+      </c>
+      <c r="B537">
+        <v>66</v>
+      </c>
+      <c r="C537" t="s">
+        <v>456</v>
+      </c>
+      <c r="D537" t="s">
+        <v>536</v>
+      </c>
+      <c r="E537">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A538">
+        <v>7201</v>
+      </c>
+      <c r="B538">
+        <v>68</v>
+      </c>
+      <c r="C538" t="s">
+        <v>383</v>
+      </c>
+      <c r="D538" t="s">
+        <v>536</v>
+      </c>
+      <c r="E538">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A539">
+        <v>7202</v>
+      </c>
+      <c r="B539">
+        <v>68</v>
+      </c>
+      <c r="C539" t="s">
+        <v>383</v>
+      </c>
+      <c r="D539" t="s">
+        <v>536</v>
+      </c>
+      <c r="E539">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A540">
+        <v>7205</v>
+      </c>
+      <c r="B540">
+        <v>68</v>
+      </c>
+      <c r="C540" t="s">
+        <v>383</v>
+      </c>
+      <c r="D540" t="s">
+        <v>536</v>
+      </c>
+      <c r="E540">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A541">
+        <v>7206</v>
+      </c>
+      <c r="B541">
+        <v>68</v>
+      </c>
+      <c r="C541" t="s">
+        <v>383</v>
+      </c>
+      <c r="D541" t="s">
+        <v>536</v>
+      </c>
+      <c r="E541">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A542">
+        <v>7207</v>
+      </c>
+      <c r="B542">
+        <v>68</v>
+      </c>
+      <c r="C542" t="s">
+        <v>383</v>
+      </c>
+      <c r="D542" t="s">
+        <v>536</v>
+      </c>
+      <c r="E542">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A543">
+        <v>7210</v>
+      </c>
+      <c r="B543">
+        <v>68</v>
+      </c>
+      <c r="C543" t="s">
+        <v>383</v>
+      </c>
+      <c r="D543" t="s">
+        <v>536</v>
+      </c>
+      <c r="E543">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A544">
+        <v>7211</v>
+      </c>
+      <c r="B544">
+        <v>68</v>
+      </c>
+      <c r="C544" t="s">
+        <v>383</v>
+      </c>
+      <c r="D544" t="s">
+        <v>536</v>
+      </c>
+      <c r="E544">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A545">
+        <v>7553</v>
+      </c>
+      <c r="B545">
+        <v>68</v>
+      </c>
+      <c r="C545" t="s">
+        <v>383</v>
+      </c>
+      <c r="D545" t="s">
+        <v>536</v>
+      </c>
+      <c r="E545">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A546">
+        <v>7251</v>
+      </c>
+      <c r="B546">
+        <v>69</v>
+      </c>
+      <c r="C546" t="s">
+        <v>386</v>
+      </c>
+      <c r="D546" t="s">
+        <v>536</v>
+      </c>
+      <c r="E546">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A547">
+        <v>7556</v>
+      </c>
+      <c r="B547">
+        <v>69</v>
+      </c>
+      <c r="C547" t="s">
+        <v>386</v>
+      </c>
+      <c r="D547" t="s">
+        <v>536</v>
+      </c>
+      <c r="E547">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A548">
+        <v>7301</v>
+      </c>
+      <c r="B548">
+        <v>70</v>
+      </c>
+      <c r="C548" t="s">
+        <v>389</v>
+      </c>
+      <c r="D548" t="s">
+        <v>536</v>
+      </c>
+      <c r="E548">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A549">
+        <v>7358</v>
+      </c>
+      <c r="B549">
+        <v>71</v>
+      </c>
+      <c r="C549" t="s">
+        <v>392</v>
+      </c>
+      <c r="D549" t="s">
+        <v>536</v>
+      </c>
+      <c r="E549">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A550">
+        <v>7551</v>
+      </c>
+      <c r="B550">
+        <v>72</v>
+      </c>
+      <c r="C550" t="s">
+        <v>395</v>
+      </c>
+      <c r="D550" t="s">
+        <v>536</v>
+      </c>
+      <c r="E550">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A551">
+        <v>7667</v>
+      </c>
+      <c r="B551">
+        <v>73</v>
+      </c>
+      <c r="C551" t="s">
+        <v>399</v>
+      </c>
+      <c r="D551" t="s">
+        <v>536</v>
+      </c>
+      <c r="E551">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A552">
+        <v>7930</v>
+      </c>
+      <c r="B552">
+        <v>76</v>
+      </c>
+      <c r="C552" t="s">
+        <v>514</v>
+      </c>
+      <c r="D552" t="s">
+        <v>536</v>
+      </c>
+      <c r="E552">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A553">
+        <v>7949</v>
+      </c>
+      <c r="B553">
+        <v>76</v>
+      </c>
+      <c r="C553" t="s">
+        <v>514</v>
+      </c>
+      <c r="D553" t="s">
+        <v>536</v>
+      </c>
+      <c r="E553">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:D553">
+    <sortCondition ref="B2"/>
+  </sortState>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H553"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
-      <selection activeCell="C281" sqref="C281"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3451,10 +12905,6 @@
       <c r="G2" t="s">
         <v>377</v>
       </c>
-      <c r="H2" t="e">
-        <f ca="1">_xludf.IF(F2&lt;44,ENTRADA,SAIDA)</f>
-        <v>#NAME?</v>
-      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
@@ -16608,7 +26058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
@@ -16951,7 +26401,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:C627"/>
@@ -24504,7 +33954,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C206"/>
   <sheetViews>
@@ -24520,11 +33970,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="78" t="s">
         <v>507</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
     </row>
     <row r="2" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="76" t="s">
@@ -24607,10 +34057,10 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" x14ac:dyDescent="0.25">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="77" t="s">
         <v>394</v>
       </c>
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="77" t="s">
         <v>395</v>
       </c>
       <c r="C10" s="61" t="s">
@@ -24618,13 +34068,13 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="78"/>
-      <c r="B11" s="78"/>
+      <c r="A11" s="77"/>
+      <c r="B11" s="77"/>
       <c r="C11" s="63"/>
     </row>
     <row r="12" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="78"/>
-      <c r="B12" s="78"/>
+      <c r="A12" s="77"/>
+      <c r="B12" s="77"/>
       <c r="C12" s="61" t="s">
         <v>397</v>
       </c>
@@ -24675,18 +34125,18 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="78" t="s">
+      <c r="A18" s="77" t="s">
         <v>408</v>
       </c>
-      <c r="B18" s="78"/>
-      <c r="C18" s="78"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="78" t="s">
+      <c r="A19" s="77" t="s">
         <v>409</v>
       </c>
-      <c r="B19" s="78"/>
-      <c r="C19" s="78"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="77"/>
     </row>
     <row r="20" spans="1:3" ht="24" x14ac:dyDescent="0.25">
       <c r="A20" s="76" t="s">
@@ -24778,10 +34228,10 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="24" x14ac:dyDescent="0.25">
-      <c r="A29" s="78" t="s">
+      <c r="A29" s="77" t="s">
         <v>425</v>
       </c>
-      <c r="B29" s="78" t="s">
+      <c r="B29" s="77" t="s">
         <v>399</v>
       </c>
       <c r="C29" s="61" t="s">
@@ -24789,13 +34239,13 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="78"/>
-      <c r="B30" s="78"/>
+      <c r="A30" s="77"/>
+      <c r="B30" s="77"/>
       <c r="C30" s="63"/>
     </row>
     <row r="31" spans="1:3" ht="36" x14ac:dyDescent="0.25">
-      <c r="A31" s="78"/>
-      <c r="B31" s="78"/>
+      <c r="A31" s="77"/>
+      <c r="B31" s="77"/>
       <c r="C31" s="61" t="s">
         <v>427</v>
       </c>
@@ -24881,10 +34331,10 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="78" t="s">
+      <c r="A40" s="77" t="s">
         <v>443</v>
       </c>
-      <c r="B40" s="78" t="s">
+      <c r="B40" s="77" t="s">
         <v>399</v>
       </c>
       <c r="C40" s="61" t="s">
@@ -24892,13 +34342,13 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="78"/>
-      <c r="B41" s="78"/>
+      <c r="A41" s="77"/>
+      <c r="B41" s="77"/>
       <c r="C41" s="63"/>
     </row>
     <row r="42" spans="1:3" ht="36" x14ac:dyDescent="0.25">
-      <c r="A42" s="78"/>
-      <c r="B42" s="78"/>
+      <c r="A42" s="77"/>
+      <c r="B42" s="77"/>
       <c r="C42" s="61" t="s">
         <v>445</v>
       </c>
@@ -24937,11 +34387,11 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A47" s="77" t="s">
+      <c r="A47" s="78" t="s">
         <v>509</v>
       </c>
-      <c r="B47" s="77"/>
-      <c r="C47" s="77"/>
+      <c r="B47" s="78"/>
+      <c r="C47" s="78"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="76" t="s">
@@ -24958,10 +34408,10 @@
       <c r="C49" s="76"/>
     </row>
     <row r="50" spans="1:3" ht="36" x14ac:dyDescent="0.25">
-      <c r="A50" s="78" t="s">
+      <c r="A50" s="77" t="s">
         <v>455</v>
       </c>
-      <c r="B50" s="78" t="s">
+      <c r="B50" s="77" t="s">
         <v>456</v>
       </c>
       <c r="C50" s="61" t="s">
@@ -24969,13 +34419,13 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="78"/>
-      <c r="B51" s="78"/>
+      <c r="A51" s="77"/>
+      <c r="B51" s="77"/>
       <c r="C51" s="63"/>
     </row>
     <row r="52" spans="1:3" ht="24" x14ac:dyDescent="0.25">
-      <c r="A52" s="78"/>
-      <c r="B52" s="78"/>
+      <c r="A52" s="77"/>
+      <c r="B52" s="77"/>
       <c r="C52" s="61" t="s">
         <v>458</v>
       </c>
@@ -25036,10 +34486,10 @@
       </c>
     </row>
     <row r="58" spans="1:3" ht="36" x14ac:dyDescent="0.25">
-      <c r="A58" s="78" t="s">
+      <c r="A58" s="77" t="s">
         <v>469</v>
       </c>
-      <c r="B58" s="78" t="s">
+      <c r="B58" s="77" t="s">
         <v>403</v>
       </c>
       <c r="C58" s="61" t="s">
@@ -25047,13 +34497,13 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="78"/>
-      <c r="B59" s="78"/>
+      <c r="A59" s="77"/>
+      <c r="B59" s="77"/>
       <c r="C59" s="63"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="78"/>
-      <c r="B60" s="78"/>
+      <c r="A60" s="77"/>
+      <c r="B60" s="77"/>
       <c r="C60" s="61" t="s">
         <v>471</v>
       </c>
@@ -25070,18 +34520,18 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="78" t="s">
+      <c r="A62" s="77" t="s">
         <v>474</v>
       </c>
-      <c r="B62" s="78"/>
-      <c r="C62" s="78"/>
+      <c r="B62" s="77"/>
+      <c r="C62" s="77"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="78" t="s">
+      <c r="A63" s="77" t="s">
         <v>475</v>
       </c>
-      <c r="B63" s="78"/>
-      <c r="C63" s="78"/>
+      <c r="B63" s="77"/>
+      <c r="C63" s="77"/>
     </row>
     <row r="64" spans="1:3" ht="24" x14ac:dyDescent="0.25">
       <c r="A64" s="59" t="s">
@@ -25345,18 +34795,6 @@
     <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="B29:B31"/>
     <mergeCell ref="A72:C72"/>
     <mergeCell ref="A73:C73"/>
     <mergeCell ref="A1:C1"/>
@@ -25373,8 +34811,83 @@
     <mergeCell ref="B40:B42"/>
     <mergeCell ref="A48:C48"/>
     <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>533</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>534</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>535</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>536</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>